--- a/Results/Categorization/lda-partial-ner-fasttext.xlsx
+++ b/Results/Categorization/lda-partial-ner-fasttext.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3215" uniqueCount="1886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3227" uniqueCount="1912">
   <si>
     <t>id</t>
   </si>
@@ -4036,478 +4036,526 @@
     <t>FOOD|SERVICE|AMBIENCE|FOOD</t>
   </si>
   <si>
+    <t>AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
     <t>PRICES|FOOD</t>
   </si>
   <si>
-    <t>SERVICE|PRICES|SERVICE</t>
+    <t>SERVICE|PRICES|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|AMBIENCE|SERVICE|SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|PRICES|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD||AMBIENCE|SERVICE|AMBIENCE|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|PRICES|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES|SERVICE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|SERVICE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|SERVICE|AMBIENCE|PRICES|FOOD|PRICES</t>
   </si>
   <si>
     <t>SERVICE|SERVICE|AMBIENCE</t>
   </si>
   <si>
-    <t>AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|AMBIENCE|SERVICE|SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|PRICES|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|AMBIENCE</t>
+    <t>PRICES|AMBIENCE|AMBIENCE|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE|FOOD|</t>
+  </si>
+  <si>
+    <t>FOOD||FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD|PRICES|FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD|</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|FOOD|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE|PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD||AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE|SERVICE|FOOD|FOOD|FOOD|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|SERVICE|FOOD|SERVICE|SERVICE|SERVICE||FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE||FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE||FOOD|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|PRICES|PRICES|PRICES|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|SERVICE|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|PRICES|SERVICE|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|AMBIENCE|SERVICE||SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|PRICES|PRICES|FOOD|FOOD|FOOD|FOOD|FOOD|PRICES|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|PRICES|FOOD|AMBIENCE|PRICES|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE|FOOD|SERVICE|FOOD|SERVICE|PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE|FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|SERVICE|AMBIENCE|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE|PRICES</t>
   </si>
   <si>
     <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|PRICES|FOOD|PRICES</t>
   </si>
   <si>
-    <t>AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES|SERVICE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|SERVICE|AMBIENCE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE|FOOD|</t>
-  </si>
-  <si>
-    <t>FOOD||FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD|PRICES|FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|SERVICE</t>
+    <t>FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|PRICES|</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES|FOOD|AMBIENCE|PRICES</t>
   </si>
   <si>
     <t>SERVICE|PRICES</t>
   </si>
   <si>
+    <t>SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES|FOOD|FOOD|PRICES|PRICES|</t>
+  </si>
+  <si>
+    <t>|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|PRICES|SERVICE|</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE|PRICES|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD||||SERVICE|SERVICE|FOOD|||||AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|PRICES|AMBIENCE|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|SERVICE|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
     <t>SERVICE|SERVICE|FOOD</t>
   </si>
   <si>
-    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|FOOD|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE|PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD||AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|SERVICE|FOOD|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|SERVICE|FOOD|SERVICE|SERVICE|SERVICE||FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|PRICES|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|SERVICE|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|PRICES|SERVICE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|AMBIENCE|SERVICE||SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|PRICES|PRICES|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|PRICES|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|FOOD|SERVICE|FOOD|SERVICE|PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|SERVICE|AMBIENCE|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|PRICES|</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES|FOOD|FOOD|PRICES|</t>
-  </si>
-  <si>
-    <t>|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|SERVICE|</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE|PRICES|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD||||SERVICE|SERVICE|FOOD||AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|PRICES|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>|</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|FOOD|PRICES|AMBIENCE|PRICES|PRICES|FOOD|FOOD|SERVICE</t>
+    <t>SERVICE|PRICES|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|FOOD|PRICES|AMBIENCE|PRICES|PRICES|AMBIENCE|AMBIENCE|FOOD|FOOD|SERVICE</t>
   </si>
   <si>
     <t>AMBIENCE|FOOD|SERVICE|SERVICE|FOOD|SERVICE</t>
@@ -4516,16 +4564,22 @@
     <t>FOOD|FOOD|AMBIENCE|SERVICE</t>
   </si>
   <si>
-    <t>SERVICE|AMBIENCE|PRICES|SERVICE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|FOOD|SERVICE|SERVICE</t>
+    <t>SERVICE|AMBIENCE|PRICES|SERVICE|AMBIENCE|PRICES|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|FOOD|PRICES|SERVICE|SERVICE</t>
   </si>
   <si>
     <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
@@ -4534,7 +4588,7 @@
     <t>AMBIENCE|PRICES|SERVICE|AMBIENCE</t>
   </si>
   <si>
-    <t>PRICES|AMBIENCE|PRICES</t>
+    <t>PRICES|AMBIENCE|PRICES|PRICES</t>
   </si>
   <si>
     <t>place|like</t>
@@ -4549,16 +4603,16 @@
     <t>good|list|rest|wine</t>
   </si>
   <si>
-    <t>away</t>
+    <t>away|rice|rice</t>
   </si>
   <si>
     <t>share|family</t>
   </si>
   <si>
-    <t>service|price|come</t>
-  </si>
-  <si>
-    <t>service|always|everything</t>
+    <t>service|price|rice|come</t>
+  </si>
+  <si>
+    <t>service|always</t>
   </si>
   <si>
     <t>edible|special</t>
@@ -4600,10 +4654,10 @@
     <t>fresh|adequately|seemed|sushi|pretty</t>
   </si>
   <si>
-    <t>good|fish</t>
-  </si>
-  <si>
-    <t>price|well|sushi</t>
+    <t>good|fish|rice|rice</t>
+  </si>
+  <si>
+    <t>price|well|sushi|rice</t>
   </si>
   <si>
     <t>service|well|food</t>
@@ -4621,19 +4675,16 @@
     <t>good|food|like</t>
   </si>
   <si>
-    <t>service|sometimes|sometimes</t>
-  </si>
-  <si>
     <t>bland|spicy|food|like</t>
   </si>
   <si>
     <t>ambience|pretty|casual|would</t>
   </si>
   <si>
-    <t>idea|view|chart|house</t>
-  </si>
-  <si>
-    <t>great|great|great|service|price|food|reasonable</t>
+    <t>river|weehawken|idea|top|view|chart|house</t>
+  </si>
+  <si>
+    <t>great|great|great|service|price|food|rice|reasonable</t>
   </si>
   <si>
     <t>edible|dessert|recommend</t>
@@ -4654,7 +4705,7 @@
     <t>pizza|live</t>
   </si>
   <si>
-    <t>pizza|price</t>
+    <t>pizza|price|rice</t>
   </si>
   <si>
     <t>good|pizza</t>
@@ -4681,7 +4732,7 @@
     <t>always|always|young|friendly|nevertheless|wife|well</t>
   </si>
   <si>
-    <t>price|wine|reasonable</t>
+    <t>price|wine|rice|reasonable</t>
   </si>
   <si>
     <t>great|delicious|service|food|come</t>
@@ -4699,7 +4750,7 @@
     <t>great|always|wine</t>
   </si>
   <si>
-    <t>sometimes|always|friendly|forget|work|people</t>
+    <t>always|friendly|forget|work|people</t>
   </si>
   <si>
     <t>pizza|like</t>
@@ -4714,12 +4765,21 @@
     <t>food|much</t>
   </si>
   <si>
+    <t>food|waitress</t>
+  </si>
+  <si>
     <t>great|service|friendly</t>
   </si>
   <si>
     <t>great|pizza|service</t>
   </si>
   <si>
+    <t>end|block</t>
+  </si>
+  <si>
+    <t>city|york|sushi</t>
+  </si>
+  <si>
     <t>food|place</t>
   </si>
   <si>
@@ -4729,7 +4789,7 @@
     <t>great|always|food|sushi</t>
   </si>
   <si>
-    <t>great|price|atmosphere</t>
+    <t>great|price|atmosphere|rice</t>
   </si>
   <si>
     <t>looked|dumpling|appetizer</t>
@@ -4750,7 +4810,7 @@
     <t>restaurant|charm|rest|warm</t>
   </si>
   <si>
-    <t>great|great|price|selection|wine</t>
+    <t>great|great|price|selection|wine|rice</t>
   </si>
   <si>
     <t>good|food|find|vibe</t>
@@ -4768,13 +4828,16 @@
     <t>spicy|roll</t>
   </si>
   <si>
+    <t>lobster</t>
+  </si>
+  <si>
     <t>pretty</t>
   </si>
   <si>
-    <t>price|dessert</t>
-  </si>
-  <si>
-    <t>made|price|always|well|selection|wine</t>
+    <t>price|rice|dessert</t>
+  </si>
+  <si>
+    <t>made|price|always|well|selection|wine|rice</t>
   </si>
   <si>
     <t>special</t>
@@ -4789,10 +4852,10 @@
     <t>delight|delicious|food</t>
   </si>
   <si>
-    <t>price|well|well|rest|wine</t>
-  </si>
-  <si>
-    <t>sitting|bathroom|order</t>
+    <t>price|well|well|rest|wine|rice</t>
+  </si>
+  <si>
+    <t>sitting|waitress|bathroom|order</t>
   </si>
   <si>
     <t>restaurant|service|away|rest|food</t>
@@ -4819,660 +4882,672 @@
     <t>mozzarella|appetizer|selection|would</t>
   </si>
   <si>
-    <t>staff|business</t>
+    <t>staff|business|pie|uws</t>
+  </si>
+  <si>
+    <t>restaurant|salad|rest|food</t>
+  </si>
+  <si>
+    <t>service|warm</t>
+  </si>
+  <si>
+    <t>staff|nonsense</t>
+  </si>
+  <si>
+    <t>would|would|still|else|lived|live</t>
+  </si>
+  <si>
+    <t>roll|served</t>
+  </si>
+  <si>
+    <t>looked|sake</t>
+  </si>
+  <si>
+    <t>roll|special|lobster</t>
+  </si>
+  <si>
+    <t>good|service</t>
+  </si>
+  <si>
+    <t>good|well|though|food|selection|order</t>
+  </si>
+  <si>
+    <t>good|list|filled|selection|wine|wine</t>
+  </si>
+  <si>
+    <t>restaurant|though|rest</t>
+  </si>
+  <si>
+    <t>restaurant|always|though|rest</t>
+  </si>
+  <si>
+    <t>good|fresh|though|food|order</t>
+  </si>
+  <si>
+    <t>take|salad|atmosphere|order|lobster|jazz|cobb|live|band|taken</t>
+  </si>
+  <si>
+    <t>delicious|made|food|food</t>
+  </si>
+  <si>
+    <t>served|food</t>
+  </si>
+  <si>
+    <t>good|made|laugh|hidden|bathroom|place</t>
+  </si>
+  <si>
+    <t>delicious|made|dish|guest|food|must|must|recommend|tortelini|happy|band</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>service|bart|food|must</t>
+  </si>
+  <si>
+    <t>fresh|high|roll|highly|much|recommend|lobster|lobster</t>
+  </si>
+  <si>
+    <t>pizza|chip|enjoyed|salad|santa|chopped|fish|guest</t>
+  </si>
+  <si>
+    <t>service|high|ambience|bart|food|wonderful|highly|recommend</t>
+  </si>
+  <si>
+    <t>bland</t>
+  </si>
+  <si>
+    <t>dumpling</t>
+  </si>
+  <si>
+    <t>restaurant|good|service|rest</t>
+  </si>
+  <si>
+    <t>roll|sushi|pretty|average</t>
+  </si>
+  <si>
+    <t>delicious|else</t>
+  </si>
+  <si>
+    <t>service|price|though|rice|reasonable</t>
+  </si>
+  <si>
+    <t>restaurant|fresh|fresh|delicious|rest|food</t>
+  </si>
+  <si>
+    <t>hats|chef</t>
+  </si>
+  <si>
+    <t>fresh|delicious|spicy|salad</t>
+  </si>
+  <si>
+    <t>fish|special</t>
+  </si>
+  <si>
+    <t>great|people|vibe</t>
+  </si>
+  <si>
+    <t>atmosphere|much|like</t>
+  </si>
+  <si>
+    <t>good|though|ambience</t>
+  </si>
+  <si>
+    <t>great|salad|though</t>
+  </si>
+  <si>
+    <t>good|sushi</t>
+  </si>
+  <si>
+    <t>spicy|price|roll|rice</t>
+  </si>
+  <si>
+    <t>good|well</t>
+  </si>
+  <si>
+    <t>food|order</t>
+  </si>
+  <si>
+    <t>great|service|price|food|rice</t>
+  </si>
+  <si>
+    <t>price|dish|rice|rice|come|congee|noodle|reasonable</t>
+  </si>
+  <si>
+    <t>great|high|well|take</t>
+  </si>
+  <si>
+    <t>wife|enjoyed|salad|tasty</t>
+  </si>
+  <si>
+    <t>fresh|dish|pasta|served</t>
+  </si>
+  <si>
+    <t>delicious</t>
+  </si>
+  <si>
+    <t>delicious|food|place</t>
+  </si>
+  <si>
+    <t>visit|manager</t>
+  </si>
+  <si>
+    <t>good|service|food</t>
+  </si>
+  <si>
+    <t>good|good|service|service|food</t>
+  </si>
+  <si>
+    <t>dish|served|atmosphere|wine|place</t>
+  </si>
+  <si>
+    <t>good|pizza|place</t>
+  </si>
+  <si>
+    <t>delicious|though|still</t>
+  </si>
+  <si>
+    <t>pizza|taste</t>
+  </si>
+  <si>
+    <t>good|pretty|tasty</t>
+  </si>
+  <si>
+    <t>bombay|beer</t>
+  </si>
+  <si>
+    <t>service|friendly|people</t>
+  </si>
+  <si>
+    <t>delicious|food</t>
+  </si>
+  <si>
+    <t>pizza|made|pasta</t>
+  </si>
+  <si>
+    <t>delight|service|ambience</t>
+  </si>
+  <si>
+    <t>food|still</t>
+  </si>
+  <si>
+    <t>taste|like|like|hanger|rubber</t>
+  </si>
+  <si>
+    <t>great|service|ambience</t>
+  </si>
+  <si>
+    <t>restaurant|service|rest|food</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>ambience|like</t>
+  </si>
+  <si>
+    <t>dish|noodle|order</t>
+  </si>
+  <si>
+    <t>good|meal|place</t>
+  </si>
+  <si>
+    <t>good|place</t>
+  </si>
+  <si>
+    <t>pizza|service|made|wine|place</t>
+  </si>
+  <si>
+    <t>city|place|romantic|claimed</t>
+  </si>
+  <si>
+    <t>restaurant|price|list|rest|wine|rice</t>
+  </si>
+  <si>
+    <t>list|selection|wine|listed|average</t>
+  </si>
+  <si>
+    <t>service|price|rice|would</t>
+  </si>
+  <si>
+    <t>working|charm|grazie|proper|constant|mille|service|constitute|somehow|work</t>
+  </si>
+  <si>
+    <t>food|could|average</t>
+  </si>
+  <si>
+    <t>meal|bland|flavoring|weird|rosemary|made|edible</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>place|would</t>
+  </si>
+  <si>
+    <t>left|dessert|recommend|else</t>
+  </si>
+  <si>
+    <t>fresh|delicious|service|fish</t>
+  </si>
+  <si>
+    <t>appetizer</t>
+  </si>
+  <si>
+    <t>pizza|family|blow|away|pizzeria|receipies|come</t>
+  </si>
+  <si>
+    <t>service|place</t>
+  </si>
+  <si>
+    <t>great|great|restaurant|service|rest|food|atmosphere</t>
+  </si>
+  <si>
+    <t>fresh|music</t>
+  </si>
+  <si>
+    <t>service|meal</t>
+  </si>
+  <si>
+    <t>service|wonderful</t>
+  </si>
+  <si>
+    <t>great|service|special|place|romantic</t>
+  </si>
+  <si>
+    <t>great|good|price|price|food|food|food|food|food|rice|rice|like</t>
+  </si>
+  <si>
+    <t>place|much</t>
+  </si>
+  <si>
+    <t>characters|experience</t>
+  </si>
+  <si>
+    <t>service|though|food|order</t>
+  </si>
+  <si>
+    <t>price|rice</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>high|price|rest|rice</t>
+  </si>
+  <si>
+    <t>ambiance|boot</t>
+  </si>
+  <si>
+    <t>sushi|special|atmosphere|like</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>cheap|service|price|food|rice</t>
+  </si>
+  <si>
+    <t>restaurant|list|rest|romantic</t>
+  </si>
+  <si>
+    <t>price|food|wine|rice</t>
+  </si>
+  <si>
+    <t>secret|room</t>
+  </si>
+  <si>
+    <t>great|service|always</t>
+  </si>
+  <si>
+    <t>hostess|waitress|could</t>
+  </si>
+  <si>
+    <t>waitress|dessert|order</t>
+  </si>
+  <si>
+    <t>service|price|price|food|place|rice|rice|like</t>
+  </si>
+  <si>
+    <t>dish|average</t>
+  </si>
+  <si>
+    <t>service|though</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>restaurant|rest|must</t>
+  </si>
+  <si>
+    <t>cheap|price|rice</t>
+  </si>
+  <si>
+    <t>great|cheap|food</t>
+  </si>
+  <si>
+    <t>chip|come|like</t>
+  </si>
+  <si>
+    <t>sitting|uncomfortable|wooden</t>
+  </si>
+  <si>
+    <t>good|good|service|ambience</t>
+  </si>
+  <si>
+    <t>restaurant|price|rest|rice</t>
+  </si>
+  <si>
+    <t>good|high|price|though|food|rice</t>
+  </si>
+  <si>
+    <t>good|price|though|rice|lobster</t>
+  </si>
+  <si>
+    <t>knew|gift|opening|special|sort|dessert|must|card|candle|birthday</t>
+  </si>
+  <si>
+    <t>mark|waiter</t>
+  </si>
+  <si>
+    <t>cheap|food</t>
+  </si>
+  <si>
+    <t>great|delight</t>
+  </si>
+  <si>
+    <t>price|list|wine|rice</t>
+  </si>
+  <si>
+    <t>great|atmosphere|come|would</t>
+  </si>
+  <si>
+    <t>great|great|good|food|place</t>
+  </si>
+  <si>
+    <t>work|people|wrong|evil|like</t>
+  </si>
+  <si>
+    <t>service|served|people</t>
+  </si>
+  <si>
+    <t>good|waitress|waitress</t>
+  </si>
+  <si>
+    <t>away|work</t>
+  </si>
+  <si>
+    <t>great|good|place|would</t>
+  </si>
+  <si>
+    <t>charm</t>
+  </si>
+  <si>
+    <t>great|price|ambience|food|rice|tasty</t>
+  </si>
+  <si>
+    <t>restaurant|service|rest</t>
+  </si>
+  <si>
+    <t>much|order</t>
+  </si>
+  <si>
+    <t>great|price|food|rice</t>
+  </si>
+  <si>
+    <t>weather|snag|table</t>
+  </si>
+  <si>
+    <t>seemed|bathroom</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>meal|friendly</t>
+  </si>
+  <si>
+    <t>well|music</t>
+  </si>
+  <si>
+    <t>sitting</t>
+  </si>
+  <si>
+    <t>wonderful|special|place</t>
+  </si>
+  <si>
+    <t>waiter|money|guys|outta</t>
+  </si>
+  <si>
+    <t>bit|menu</t>
+  </si>
+  <si>
+    <t>cheap|food|could</t>
+  </si>
+  <si>
+    <t>wait|staff</t>
+  </si>
+  <si>
+    <t>price|taste|rice</t>
+  </si>
+  <si>
+    <t>great|take|place</t>
+  </si>
+  <si>
+    <t>price|place|rice</t>
+  </si>
+  <si>
+    <t>take|else</t>
+  </si>
+  <si>
+    <t>well|place</t>
+  </si>
+  <si>
+    <t>great|music|like</t>
+  </si>
+  <si>
+    <t>find</t>
+  </si>
+  <si>
+    <t>price|food|rice</t>
+  </si>
+  <si>
+    <t>delight|place</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>delight|atmosphere</t>
+  </si>
+  <si>
+    <t>great|great|homey|setting|vanilla|music|recommend</t>
+  </si>
+  <si>
+    <t>good|request|lady|take|music|taste|moreover|outrageously</t>
+  </si>
+  <si>
+    <t>good|price|rice|reasonable</t>
+  </si>
+  <si>
+    <t>restaurant|working|work|rest</t>
+  </si>
+  <si>
+    <t>setting|casual|romantic</t>
+  </si>
+  <si>
+    <t>price|though|rest|rice</t>
+  </si>
+  <si>
+    <t>atmosphere|like</t>
+  </si>
+  <si>
+    <t>service|friendly|casual|atmosphere</t>
+  </si>
+  <si>
+    <t>city|price|place|rice</t>
+  </si>
+  <si>
+    <t>service|served|place|much|would</t>
+  </si>
+  <si>
+    <t>management</t>
+  </si>
+  <si>
+    <t>great|price|though|rice</t>
+  </si>
+  <si>
+    <t>guest|ambience|place|like</t>
+  </si>
+  <si>
+    <t>great|great|great|service|price|food|rice</t>
+  </si>
+  <si>
+    <t>good|cheap|place</t>
+  </si>
+  <si>
+    <t>great|service|place|place|romantic|live</t>
+  </si>
+  <si>
+    <t>meal|price|list|wine|rice</t>
+  </si>
+  <si>
+    <t>still|courtesey|measure|liquers</t>
+  </si>
+  <si>
+    <t>waiters|chin</t>
+  </si>
+  <si>
+    <t>romantic</t>
+  </si>
+  <si>
+    <t>great|great|price|food|place|rice</t>
+  </si>
+  <si>
+    <t>sitting|high</t>
+  </si>
+  <si>
+    <t>friendly|warm|warm</t>
+  </si>
+  <si>
+    <t>great|good|price|food|wine|rice|reasonable|selecion</t>
+  </si>
+  <si>
+    <t>good|price|rice</t>
+  </si>
+  <si>
+    <t>price|food|rice|would|average</t>
+  </si>
+  <si>
+    <t>great|place</t>
+  </si>
+  <si>
+    <t>good|cheap|food</t>
+  </si>
+  <si>
+    <t>good|atmosphere</t>
+  </si>
+  <si>
+    <t>good|cheap|wine</t>
+  </si>
+  <si>
+    <t>drinks|half</t>
+  </si>
+  <si>
+    <t>toons|redone|space</t>
+  </si>
+  <si>
+    <t>delight|york</t>
+  </si>
+  <si>
+    <t>great|price|food|rice|reasonable</t>
+  </si>
+  <si>
+    <t>good|edible|price|food|rice</t>
+  </si>
+  <si>
+    <t>jazz</t>
+  </si>
+  <si>
+    <t>great|good|service|price|music|food|rice</t>
+  </si>
+  <si>
+    <t>price|fish|rice</t>
+  </si>
+  <si>
+    <t>restaurant|good|cheap|price|price|friendly|rest|food|village|rice|rice|rice|like</t>
+  </si>
+  <si>
+    <t>restaurant|good|service|price|work|rest|food|rice</t>
+  </si>
+  <si>
+    <t>service|price|though|food|rice</t>
+  </si>
+  <si>
+    <t>price|food|rice|reasonable</t>
+  </si>
+  <si>
+    <t>price|chip|fish|rice</t>
+  </si>
+  <si>
+    <t>restaurant|city|york|rest|warm</t>
+  </si>
+  <si>
+    <t>setting|like</t>
+  </si>
+  <si>
+    <t>good|meal|though</t>
+  </si>
+  <si>
+    <t>away|hidden|place</t>
+  </si>
+  <si>
+    <t>atmosphere|come</t>
+  </si>
+  <si>
+    <t>service|price|food|rice</t>
+  </si>
+  <si>
+    <t>season|charge</t>
+  </si>
+  <si>
+    <t>dinner|manhattan|feet</t>
+  </si>
+  <si>
+    <t>garden|area</t>
+  </si>
+  <si>
+    <t>good|food|place</t>
+  </si>
+  <si>
+    <t>high|highly|place|recommend</t>
+  </si>
+  <si>
+    <t>water|table|voss|bottles|water|piece</t>
+  </si>
+  <si>
+    <t>view|river|nyc</t>
+  </si>
+  <si>
+    <t>good|price|friendly|people|food|rice</t>
+  </si>
+  <si>
+    <t>high|price|food|rice</t>
+  </si>
+  <si>
+    <t>bathroom|bathroom</t>
+  </si>
+  <si>
+    <t>price|rest|rice|would</t>
+  </si>
+  <si>
+    <t>great|romantic</t>
   </si>
   <si>
     <t>restaurant|rest|food</t>
   </si>
   <si>
-    <t>service|warm</t>
-  </si>
-  <si>
-    <t>staff|nonsense</t>
-  </si>
-  <si>
-    <t>would|would|still|else|lived|live</t>
-  </si>
-  <si>
-    <t>roll|served</t>
-  </si>
-  <si>
-    <t>looked|sake</t>
-  </si>
-  <si>
-    <t>roll|special</t>
-  </si>
-  <si>
-    <t>good|service</t>
-  </si>
-  <si>
-    <t>good|well|though|food|selection|order</t>
-  </si>
-  <si>
-    <t>good|list|filled|selection|wine|wine</t>
-  </si>
-  <si>
-    <t>restaurant|though|rest</t>
-  </si>
-  <si>
-    <t>restaurant|always|though|rest</t>
-  </si>
-  <si>
-    <t>good|fresh|though|food|order</t>
-  </si>
-  <si>
-    <t>take|atmosphere|order|jazz|live|band|taken</t>
-  </si>
-  <si>
-    <t>delicious|made|food|food</t>
-  </si>
-  <si>
-    <t>served|food</t>
-  </si>
-  <si>
-    <t>good|made|laugh|hidden|bathroom|place</t>
-  </si>
-  <si>
-    <t>delicious|made|dish|guest|food|must|must|recommend|tortelini|happy|band</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>service|food|must</t>
-  </si>
-  <si>
-    <t>fresh|high|roll|highly|much|recommend</t>
-  </si>
-  <si>
-    <t>pizza|chip|enjoyed|santa|chopped|fish|guest</t>
-  </si>
-  <si>
-    <t>service|high|ambience|food|wonderful|highly|recommend</t>
-  </si>
-  <si>
-    <t>bland</t>
-  </si>
-  <si>
-    <t>dumpling</t>
-  </si>
-  <si>
-    <t>restaurant|good|service|rest</t>
-  </si>
-  <si>
-    <t>roll|sushi|pretty|average</t>
-  </si>
-  <si>
-    <t>delicious|everything|else</t>
-  </si>
-  <si>
-    <t>service|price|though|reasonable</t>
-  </si>
-  <si>
-    <t>restaurant|fresh|fresh|delicious|rest|food</t>
-  </si>
-  <si>
-    <t>hats</t>
-  </si>
-  <si>
-    <t>fresh|delicious|spicy</t>
-  </si>
-  <si>
-    <t>fish|special</t>
-  </si>
-  <si>
-    <t>great|people|vibe</t>
-  </si>
-  <si>
-    <t>atmosphere|much|like</t>
-  </si>
-  <si>
-    <t>good|though|ambience</t>
-  </si>
-  <si>
-    <t>great|though</t>
-  </si>
-  <si>
-    <t>good|sushi</t>
-  </si>
-  <si>
-    <t>spicy|price|roll</t>
-  </si>
-  <si>
-    <t>good|well</t>
-  </si>
-  <si>
-    <t>food|order</t>
-  </si>
-  <si>
-    <t>great|service|price|food</t>
-  </si>
-  <si>
-    <t>price|dish|come|congee|noodle|reasonable</t>
-  </si>
-  <si>
-    <t>great|high|well|take</t>
-  </si>
-  <si>
-    <t>wife|enjoyed|tasty</t>
-  </si>
-  <si>
-    <t>fresh|dish|timely|pasta|served</t>
-  </si>
-  <si>
-    <t>delicious</t>
-  </si>
-  <si>
-    <t>delicious|food|place</t>
-  </si>
-  <si>
-    <t>visit</t>
-  </si>
-  <si>
-    <t>good|service|sometimes|food</t>
-  </si>
-  <si>
-    <t>good|good|service|service|sometimes|sometimes|food</t>
-  </si>
-  <si>
-    <t>dish|served|atmosphere|wine|place</t>
-  </si>
-  <si>
-    <t>good|pizza|place</t>
-  </si>
-  <si>
-    <t>delicious|though|still</t>
-  </si>
-  <si>
-    <t>pizza|taste</t>
-  </si>
-  <si>
-    <t>good|pretty|tasty</t>
-  </si>
-  <si>
-    <t>beer</t>
-  </si>
-  <si>
-    <t>service|friendly|people</t>
-  </si>
-  <si>
-    <t>delicious|food</t>
-  </si>
-  <si>
-    <t>pizza|made|pasta</t>
-  </si>
-  <si>
-    <t>delight|service|ambience</t>
-  </si>
-  <si>
-    <t>food|still</t>
-  </si>
-  <si>
-    <t>taste|like|like|hanger</t>
-  </si>
-  <si>
-    <t>great|service|ambience</t>
-  </si>
-  <si>
-    <t>restaurant|service|rest|food</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>ambience|like</t>
-  </si>
-  <si>
-    <t>dish|noodle|order</t>
-  </si>
-  <si>
-    <t>good|meal|place</t>
-  </si>
-  <si>
-    <t>good|place</t>
-  </si>
-  <si>
-    <t>pizza|service|made|wine|place</t>
-  </si>
-  <si>
-    <t>place|romantic|claimed</t>
-  </si>
-  <si>
-    <t>restaurant|price|list|rest|wine</t>
-  </si>
-  <si>
-    <t>list|selection|wine|listed|average</t>
-  </si>
-  <si>
-    <t>service|price|would</t>
-  </si>
-  <si>
-    <t>working|charm|grazie|proper|constant|mille|service|constitute|somehow|work</t>
-  </si>
-  <si>
-    <t>food|could|average</t>
-  </si>
-  <si>
-    <t>meal|bland|flavoring|weird|rosemary|made|edible</t>
-  </si>
-  <si>
-    <t>fish</t>
-  </si>
-  <si>
-    <t>place|would</t>
-  </si>
-  <si>
-    <t>left|dessert|recommend|else</t>
-  </si>
-  <si>
-    <t>fresh|delicious|service|fish</t>
-  </si>
-  <si>
-    <t>appetizer</t>
-  </si>
-  <si>
-    <t>pizza|family|blow|away|pizzeria|receipies|come</t>
-  </si>
-  <si>
-    <t>service|place</t>
-  </si>
-  <si>
-    <t>great|great|restaurant|service|rest|food|atmosphere</t>
-  </si>
-  <si>
-    <t>fresh|music</t>
-  </si>
-  <si>
-    <t>service|meal</t>
-  </si>
-  <si>
-    <t>service|wonderful</t>
-  </si>
-  <si>
-    <t>great|service|special|place|romantic</t>
-  </si>
-  <si>
-    <t>great|good|price|price|food|food|food|food|food|like</t>
-  </si>
-  <si>
-    <t>place|much</t>
-  </si>
-  <si>
-    <t>characters|experience</t>
-  </si>
-  <si>
-    <t>service|though|food|order</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>high|price|rest</t>
-  </si>
-  <si>
-    <t>ambiance|boot</t>
-  </si>
-  <si>
-    <t>sushi|special|atmosphere|like</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>cheap|service|price|food</t>
-  </si>
-  <si>
-    <t>restaurant|list|rest|romantic</t>
-  </si>
-  <si>
-    <t>price|food|wine</t>
-  </si>
-  <si>
-    <t>secret|room</t>
-  </si>
-  <si>
-    <t>great|service|always</t>
-  </si>
-  <si>
-    <t>everything|could</t>
-  </si>
-  <si>
-    <t>dessert|order</t>
-  </si>
-  <si>
-    <t>service|price|price|food|place|like</t>
-  </si>
-  <si>
-    <t>dish|average</t>
-  </si>
-  <si>
-    <t>service|though</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>restaurant|rest|must</t>
-  </si>
-  <si>
-    <t>cheap|price</t>
-  </si>
-  <si>
-    <t>great|cheap|food</t>
-  </si>
-  <si>
-    <t>chip|come|like</t>
-  </si>
-  <si>
-    <t>sitting|uncomfortable|wooden</t>
-  </si>
-  <si>
-    <t>good|good|service|ambience</t>
-  </si>
-  <si>
-    <t>restaurant|price|rest</t>
-  </si>
-  <si>
-    <t>good|high|price|though|food</t>
-  </si>
-  <si>
-    <t>good|price|though</t>
-  </si>
-  <si>
-    <t>knew|gift|opening|special|sort|dessert|must|card|candle|birthday</t>
-  </si>
-  <si>
-    <t>mark</t>
-  </si>
-  <si>
-    <t>cheap|food</t>
-  </si>
-  <si>
-    <t>great|delight</t>
-  </si>
-  <si>
-    <t>price|list|wine</t>
-  </si>
-  <si>
-    <t>great|atmosphere|come|would</t>
-  </si>
-  <si>
-    <t>great|great|good|food|place</t>
-  </si>
-  <si>
-    <t>work|people|wrong|evil|like</t>
-  </si>
-  <si>
-    <t>service|served|people|everything</t>
-  </si>
-  <si>
-    <t>away|work</t>
-  </si>
-  <si>
-    <t>great|good|place|would</t>
-  </si>
-  <si>
-    <t>charm</t>
-  </si>
-  <si>
-    <t>great|price|ambience|food|tasty</t>
-  </si>
-  <si>
-    <t>restaurant|service|rest</t>
-  </si>
-  <si>
-    <t>much|order</t>
-  </si>
-  <si>
-    <t>great|price|food</t>
-  </si>
-  <si>
-    <t>weather|snag|table</t>
-  </si>
-  <si>
-    <t>seemed|bathroom</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>meal|friendly</t>
-  </si>
-  <si>
-    <t>well|music</t>
-  </si>
-  <si>
-    <t>sitting</t>
-  </si>
-  <si>
-    <t>wonderful|special|place</t>
-  </si>
-  <si>
-    <t>money|guys|outta</t>
-  </si>
-  <si>
-    <t>cheap|food|could</t>
-  </si>
-  <si>
-    <t>wait|staff</t>
-  </si>
-  <si>
-    <t>price|taste</t>
-  </si>
-  <si>
-    <t>great|take|place</t>
-  </si>
-  <si>
-    <t>price|place</t>
-  </si>
-  <si>
-    <t>take|else</t>
-  </si>
-  <si>
-    <t>well|place</t>
-  </si>
-  <si>
-    <t>great|music|like</t>
-  </si>
-  <si>
-    <t>find</t>
-  </si>
-  <si>
-    <t>price|food</t>
-  </si>
-  <si>
-    <t>delight|place</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>delight|atmosphere</t>
-  </si>
-  <si>
-    <t>great|great|homey|setting|vanilla|music|recommend</t>
-  </si>
-  <si>
-    <t>good|request|lady|take|music|taste|moreover|outrageously</t>
-  </si>
-  <si>
-    <t>good|price|reasonable</t>
-  </si>
-  <si>
-    <t>restaurant|working|work|rest</t>
-  </si>
-  <si>
-    <t>setting|casual|romantic</t>
-  </si>
-  <si>
-    <t>price|though|rest</t>
-  </si>
-  <si>
-    <t>atmosphere|like</t>
-  </si>
-  <si>
-    <t>service|friendly|casual|atmosphere</t>
-  </si>
-  <si>
-    <t>service|served|place|much|would</t>
-  </si>
-  <si>
-    <t>management</t>
-  </si>
-  <si>
-    <t>great|price|though</t>
-  </si>
-  <si>
-    <t>guest|ambience|place|like</t>
-  </si>
-  <si>
-    <t>great|great|great|service|price|food</t>
-  </si>
-  <si>
-    <t>good|cheap|place</t>
-  </si>
-  <si>
-    <t>great|service|place|place|romantic|live</t>
-  </si>
-  <si>
-    <t>meal|price|list|wine</t>
-  </si>
-  <si>
-    <t>still|courtesey|measure|liquers</t>
-  </si>
-  <si>
-    <t>thing|waiters|chin</t>
-  </si>
-  <si>
-    <t>romantic</t>
-  </si>
-  <si>
-    <t>great|great|price|food|place</t>
-  </si>
-  <si>
-    <t>sitting|high</t>
-  </si>
-  <si>
-    <t>friendly|warm|warm</t>
-  </si>
-  <si>
-    <t>great|good|price|food|wine|reasonable|selecion</t>
-  </si>
-  <si>
-    <t>good|price|everything</t>
-  </si>
-  <si>
-    <t>price|food|would|average</t>
-  </si>
-  <si>
-    <t>great|place</t>
-  </si>
-  <si>
-    <t>good|cheap|food</t>
-  </si>
-  <si>
-    <t>good|atmosphere</t>
-  </si>
-  <si>
-    <t>good|cheap|wine</t>
-  </si>
-  <si>
-    <t>everything</t>
-  </si>
-  <si>
-    <t>drinks|half</t>
-  </si>
-  <si>
-    <t>toons|redone|space</t>
-  </si>
-  <si>
-    <t>delight</t>
-  </si>
-  <si>
-    <t>great|price|food|reasonable</t>
-  </si>
-  <si>
-    <t>good|edible|price|food</t>
-  </si>
-  <si>
-    <t>jazz</t>
-  </si>
-  <si>
-    <t>great|good|service|price|music|food</t>
-  </si>
-  <si>
-    <t>price|fish</t>
-  </si>
-  <si>
-    <t>restaurant|good|cheap|price|price|friendly|rest|food|village|like</t>
-  </si>
-  <si>
-    <t>restaurant|good|service|price|work|rest|food</t>
-  </si>
-  <si>
-    <t>service|price|though|food</t>
-  </si>
-  <si>
-    <t>price|food|reasonable</t>
-  </si>
-  <si>
-    <t>price|chip|fish</t>
-  </si>
-  <si>
-    <t>restaurant|rest|warm</t>
-  </si>
-  <si>
-    <t>setting|like</t>
-  </si>
-  <si>
-    <t>good|meal|though</t>
-  </si>
-  <si>
-    <t>away|hidden|place</t>
-  </si>
-  <si>
-    <t>atmosphere|come</t>
-  </si>
-  <si>
-    <t>service|price|food</t>
-  </si>
-  <si>
-    <t>season|charge</t>
-  </si>
-  <si>
-    <t>dinner|feet</t>
-  </si>
-  <si>
-    <t>garden|area</t>
-  </si>
-  <si>
-    <t>good|food|place</t>
-  </si>
-  <si>
-    <t>high|highly|place|recommend</t>
-  </si>
-  <si>
-    <t>water|table|voss|bottles|water|piece</t>
-  </si>
-  <si>
-    <t>good|price|friendly|people|food</t>
-  </si>
-  <si>
-    <t>high|price|food</t>
-  </si>
-  <si>
-    <t>bathroom|bathroom</t>
-  </si>
-  <si>
-    <t>price|rest|would</t>
-  </si>
-  <si>
-    <t>great|romantic</t>
-  </si>
-  <si>
     <t>belly|dancing|crowd</t>
   </si>
   <si>
@@ -5485,10 +5560,7 @@
     <t>pretty|atmosphere</t>
   </si>
   <si>
-    <t>service|price|dish|average</t>
-  </si>
-  <si>
-    <t>thing|decor</t>
+    <t>service|price|dish|rice|average</t>
   </si>
   <si>
     <t>birthday</t>
@@ -5503,7 +5575,7 @@
     <t>common|place</t>
   </si>
   <si>
-    <t>season|season|restaurant|restaurant|nose|history|trust|charge|rest|rest|sort</t>
+    <t>season|season|restaurant|restaurant|nose|history|trust|charge|city|york|rest|rest|sort</t>
   </si>
   <si>
     <t>high|highly</t>
@@ -5527,7 +5599,7 @@
     <t>good|fresh|food</t>
   </si>
   <si>
-    <t>restaurant|instead|price|rest|place|would</t>
+    <t>restaurant|instead|price|rest|place|rice|rice|would</t>
   </si>
   <si>
     <t>lunch|buffet</t>
@@ -5539,22 +5611,25 @@
     <t>stone|bowl</t>
   </si>
   <si>
-    <t>restaurant|rest|sushi|romantic</t>
+    <t>restaurant|city|rest|romantic</t>
+  </si>
+  <si>
+    <t>restaurant|city|rest|sushi|romantic</t>
   </si>
   <si>
     <t>sake|wonderful</t>
   </si>
   <si>
-    <t>great|good|price|reasonable</t>
+    <t>great|good|price|rice|reasonable</t>
   </si>
   <si>
     <t>service|well</t>
   </si>
   <si>
-    <t>great|good|fresh|service|meal</t>
-  </si>
-  <si>
-    <t>good|high|price|food|come|would</t>
+    <t>great|good|fresh|service|meal|salad</t>
+  </si>
+  <si>
+    <t>good|high|price|food|rice|come|would</t>
   </si>
   <si>
     <t>restaurant|bland|taste|fish|rest</t>
@@ -5566,7 +5641,10 @@
     <t>list|reasonable|would|listed</t>
   </si>
   <si>
-    <t>price|place|average</t>
+    <t>price|place|rice|average</t>
+  </si>
+  <si>
+    <t>price|salad|rice</t>
   </si>
   <si>
     <t>negative</t>
@@ -6078,10 +6156,10 @@
         <v>1337</v>
       </c>
       <c r="G2" t="s">
-        <v>1507</v>
+        <v>1525</v>
       </c>
       <c r="H2" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -6107,7 +6185,7 @@
         <v>933</v>
       </c>
       <c r="H3" t="s">
-        <v>1852</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -6130,10 +6208,10 @@
         <v>1338</v>
       </c>
       <c r="G4" t="s">
-        <v>1508</v>
+        <v>1526</v>
       </c>
       <c r="H4" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -6156,10 +6234,10 @@
         <v>1276</v>
       </c>
       <c r="G5" t="s">
-        <v>1509</v>
+        <v>1527</v>
       </c>
       <c r="H5" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6182,10 +6260,10 @@
         <v>1339</v>
       </c>
       <c r="G6" t="s">
-        <v>1510</v>
+        <v>1528</v>
       </c>
       <c r="H6" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6205,13 +6283,13 @@
         <v>1276</v>
       </c>
       <c r="F7" t="s">
-        <v>1285</v>
+        <v>1340</v>
       </c>
       <c r="G7" t="s">
-        <v>1511</v>
+        <v>1529</v>
       </c>
       <c r="H7" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6231,13 +6309,13 @@
         <v>1277</v>
       </c>
       <c r="F8" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="G8" t="s">
-        <v>1512</v>
+        <v>1530</v>
       </c>
       <c r="H8" t="s">
-        <v>1855</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6257,13 +6335,13 @@
         <v>1280</v>
       </c>
       <c r="F9" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="G9" t="s">
-        <v>1513</v>
+        <v>1531</v>
       </c>
       <c r="H9" t="s">
-        <v>1856</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6283,13 +6361,13 @@
         <v>1281</v>
       </c>
       <c r="F10" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="G10" t="s">
-        <v>1514</v>
+        <v>1532</v>
       </c>
       <c r="H10" t="s">
-        <v>1856</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6309,13 +6387,13 @@
         <v>1278</v>
       </c>
       <c r="F11" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G11" t="s">
-        <v>1515</v>
+        <v>1533</v>
       </c>
       <c r="H11" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6335,13 +6413,13 @@
         <v>1282</v>
       </c>
       <c r="F12" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="G12" t="s">
-        <v>1516</v>
+        <v>1534</v>
       </c>
       <c r="H12" t="s">
-        <v>1855</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6361,13 +6439,13 @@
         <v>1278</v>
       </c>
       <c r="F13" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G13" t="s">
-        <v>1517</v>
+        <v>1535</v>
       </c>
       <c r="H13" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6387,13 +6465,13 @@
         <v>1277</v>
       </c>
       <c r="F14" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="G14" t="s">
-        <v>1518</v>
+        <v>1536</v>
       </c>
       <c r="H14" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6419,7 +6497,7 @@
         <v>1089</v>
       </c>
       <c r="H15" t="s">
-        <v>1857</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6439,13 +6517,13 @@
         <v>1284</v>
       </c>
       <c r="F16" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G16" t="s">
-        <v>1519</v>
+        <v>1537</v>
       </c>
       <c r="H16" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6465,13 +6543,13 @@
         <v>1277</v>
       </c>
       <c r="F17" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G17" t="s">
-        <v>1520</v>
+        <v>1538</v>
       </c>
       <c r="H17" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6491,13 +6569,13 @@
         <v>1276</v>
       </c>
       <c r="F18" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G18" t="s">
-        <v>1521</v>
+        <v>1539</v>
       </c>
       <c r="H18" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6520,7 +6598,7 @@
         <v>933</v>
       </c>
       <c r="H19" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6540,13 +6618,13 @@
         <v>1276</v>
       </c>
       <c r="F20" t="s">
-        <v>1350</v>
+        <v>1343</v>
       </c>
       <c r="G20" t="s">
-        <v>1522</v>
+        <v>1540</v>
       </c>
       <c r="H20" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6572,7 +6650,7 @@
         <v>1120</v>
       </c>
       <c r="H21" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6595,10 +6673,10 @@
         <v>1351</v>
       </c>
       <c r="G22" t="s">
-        <v>1523</v>
+        <v>1541</v>
       </c>
       <c r="H22" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6621,10 +6699,10 @@
         <v>1285</v>
       </c>
       <c r="G23" t="s">
-        <v>1524</v>
+        <v>1542</v>
       </c>
       <c r="H23" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6644,13 +6722,13 @@
         <v>1278</v>
       </c>
       <c r="F24" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G24" t="s">
-        <v>1525</v>
+        <v>1543</v>
       </c>
       <c r="H24" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6676,7 +6754,7 @@
         <v>947</v>
       </c>
       <c r="H25" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6699,10 +6777,10 @@
         <v>1352</v>
       </c>
       <c r="G26" t="s">
-        <v>1526</v>
+        <v>1544</v>
       </c>
       <c r="H26" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6725,10 +6803,10 @@
         <v>1353</v>
       </c>
       <c r="G27" t="s">
-        <v>1527</v>
+        <v>1545</v>
       </c>
       <c r="H27" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6751,10 +6829,10 @@
         <v>1354</v>
       </c>
       <c r="G28" t="s">
-        <v>1528</v>
+        <v>1546</v>
       </c>
       <c r="H28" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6777,10 +6855,10 @@
         <v>1355</v>
       </c>
       <c r="G29" t="s">
-        <v>1529</v>
+        <v>1547</v>
       </c>
       <c r="H29" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6803,10 +6881,10 @@
         <v>1356</v>
       </c>
       <c r="G30" t="s">
-        <v>1530</v>
+        <v>1548</v>
       </c>
       <c r="H30" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6829,10 +6907,10 @@
         <v>1357</v>
       </c>
       <c r="G31" t="s">
-        <v>1531</v>
+        <v>1549</v>
       </c>
       <c r="H31" t="s">
-        <v>1856</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6855,10 +6933,10 @@
         <v>1358</v>
       </c>
       <c r="G32" t="s">
-        <v>1532</v>
+        <v>1550</v>
       </c>
       <c r="H32" t="s">
-        <v>1856</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6878,13 +6956,13 @@
         <v>1278</v>
       </c>
       <c r="F33" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G33" t="s">
-        <v>1533</v>
+        <v>1551</v>
       </c>
       <c r="H33" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6907,10 +6985,10 @@
         <v>1359</v>
       </c>
       <c r="G34" t="s">
-        <v>1534</v>
+        <v>1552</v>
       </c>
       <c r="H34" t="s">
-        <v>1858</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6933,10 +7011,10 @@
         <v>1285</v>
       </c>
       <c r="G35" t="s">
-        <v>1524</v>
+        <v>1542</v>
       </c>
       <c r="H35" t="s">
-        <v>1859</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6956,13 +7034,13 @@
         <v>1276</v>
       </c>
       <c r="F36" t="s">
-        <v>1360</v>
+        <v>1276</v>
       </c>
       <c r="G36" t="s">
-        <v>1535</v>
+        <v>947</v>
       </c>
       <c r="H36" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6985,10 +7063,10 @@
         <v>1276</v>
       </c>
       <c r="G37" t="s">
-        <v>1509</v>
+        <v>1527</v>
       </c>
       <c r="H37" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -7008,13 +7086,13 @@
         <v>1278</v>
       </c>
       <c r="F38" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="G38" t="s">
-        <v>1536</v>
+        <v>1553</v>
       </c>
       <c r="H38" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -7034,13 +7112,13 @@
         <v>1285</v>
       </c>
       <c r="F39" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="G39" t="s">
-        <v>1537</v>
+        <v>1554</v>
       </c>
       <c r="H39" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -7060,13 +7138,13 @@
         <v>1285</v>
       </c>
       <c r="F40" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="G40" t="s">
-        <v>1538</v>
+        <v>1555</v>
       </c>
       <c r="H40" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -7086,13 +7164,13 @@
         <v>1280</v>
       </c>
       <c r="F41" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="G41" t="s">
-        <v>1539</v>
+        <v>1556</v>
       </c>
       <c r="H41" t="s">
-        <v>1856</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -7112,13 +7190,13 @@
         <v>1278</v>
       </c>
       <c r="F42" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="G42" t="s">
-        <v>1540</v>
+        <v>1557</v>
       </c>
       <c r="H42" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -7138,13 +7216,13 @@
         <v>1285</v>
       </c>
       <c r="F43" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="G43" t="s">
-        <v>1541</v>
+        <v>1558</v>
       </c>
       <c r="H43" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -7164,13 +7242,13 @@
         <v>1285</v>
       </c>
       <c r="F44" t="s">
-        <v>1350</v>
+        <v>1343</v>
       </c>
       <c r="G44" t="s">
-        <v>1542</v>
+        <v>1559</v>
       </c>
       <c r="H44" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -7190,13 +7268,13 @@
         <v>1288</v>
       </c>
       <c r="F45" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="G45" t="s">
-        <v>1543</v>
+        <v>1560</v>
       </c>
       <c r="H45" t="s">
-        <v>1860</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -7216,13 +7294,13 @@
         <v>1289</v>
       </c>
       <c r="F46" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G46" t="s">
-        <v>1544</v>
+        <v>1561</v>
       </c>
       <c r="H46" t="s">
-        <v>1861</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -7242,13 +7320,13 @@
         <v>1277</v>
       </c>
       <c r="F47" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G47" t="s">
-        <v>1545</v>
+        <v>1562</v>
       </c>
       <c r="H47" t="s">
-        <v>1852</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -7268,13 +7346,13 @@
         <v>1279</v>
       </c>
       <c r="F48" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="G48" t="s">
-        <v>1546</v>
+        <v>1563</v>
       </c>
       <c r="H48" t="s">
-        <v>1852</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7294,13 +7372,13 @@
         <v>1282</v>
       </c>
       <c r="F49" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G49" t="s">
-        <v>1547</v>
+        <v>1564</v>
       </c>
       <c r="H49" t="s">
-        <v>1862</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7326,7 +7404,7 @@
         <v>1046</v>
       </c>
       <c r="H50" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7346,13 +7424,13 @@
         <v>1282</v>
       </c>
       <c r="F51" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="G51" t="s">
-        <v>1548</v>
+        <v>1565</v>
       </c>
       <c r="H51" t="s">
-        <v>1856</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7372,13 +7450,13 @@
         <v>1278</v>
       </c>
       <c r="F52" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="G52" t="s">
-        <v>1549</v>
+        <v>1566</v>
       </c>
       <c r="H52" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7401,10 +7479,10 @@
         <v>1285</v>
       </c>
       <c r="G53" t="s">
-        <v>1550</v>
+        <v>1567</v>
       </c>
       <c r="H53" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7427,10 +7505,10 @@
         <v>1278</v>
       </c>
       <c r="G54" t="s">
-        <v>1551</v>
+        <v>1568</v>
       </c>
       <c r="H54" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7450,13 +7528,13 @@
         <v>1290</v>
       </c>
       <c r="F55" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="G55" t="s">
-        <v>1552</v>
+        <v>1569</v>
       </c>
       <c r="H55" t="s">
-        <v>1863</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7479,10 +7557,10 @@
         <v>1372</v>
       </c>
       <c r="G56" t="s">
-        <v>1553</v>
+        <v>1570</v>
       </c>
       <c r="H56" t="s">
-        <v>1864</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7505,10 +7583,10 @@
         <v>1373</v>
       </c>
       <c r="G57" t="s">
-        <v>1554</v>
+        <v>1571</v>
       </c>
       <c r="H57" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7531,10 +7609,10 @@
         <v>1374</v>
       </c>
       <c r="G58" t="s">
-        <v>1555</v>
+        <v>1572</v>
       </c>
       <c r="H58" t="s">
-        <v>1865</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7557,10 +7635,10 @@
         <v>1375</v>
       </c>
       <c r="G59" t="s">
-        <v>1556</v>
+        <v>1573</v>
       </c>
       <c r="H59" t="s">
-        <v>1863</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7579,8 +7657,14 @@
       <c r="E60" t="s">
         <v>1276</v>
       </c>
+      <c r="F60" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G60" t="s">
+        <v>983</v>
+      </c>
       <c r="H60" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7600,13 +7684,13 @@
         <v>1278</v>
       </c>
       <c r="F61" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G61" t="s">
-        <v>1557</v>
+        <v>1574</v>
       </c>
       <c r="H61" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7629,10 +7713,10 @@
         <v>1376</v>
       </c>
       <c r="G62" t="s">
-        <v>1558</v>
+        <v>1575</v>
       </c>
       <c r="H62" t="s">
-        <v>1856</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7652,13 +7736,13 @@
         <v>1276</v>
       </c>
       <c r="F63" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G63" t="s">
-        <v>1559</v>
+        <v>1576</v>
       </c>
       <c r="H63" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7681,10 +7765,10 @@
         <v>1377</v>
       </c>
       <c r="G64" t="s">
-        <v>1560</v>
+        <v>1577</v>
       </c>
       <c r="H64" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7704,13 +7788,13 @@
         <v>1276</v>
       </c>
       <c r="F65" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G65" t="s">
-        <v>1521</v>
+        <v>1539</v>
       </c>
       <c r="H65" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7733,10 +7817,10 @@
         <v>1378</v>
       </c>
       <c r="G66" t="s">
-        <v>1561</v>
+        <v>1578</v>
       </c>
       <c r="H66" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7759,10 +7843,10 @@
         <v>1379</v>
       </c>
       <c r="G67" t="s">
-        <v>1562</v>
+        <v>1579</v>
       </c>
       <c r="H67" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7788,7 +7872,7 @@
         <v>989</v>
       </c>
       <c r="H68" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7811,10 +7895,10 @@
         <v>1294</v>
       </c>
       <c r="G69" t="s">
-        <v>1563</v>
+        <v>1580</v>
       </c>
       <c r="H69" t="s">
-        <v>1852</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7837,10 +7921,10 @@
         <v>1278</v>
       </c>
       <c r="G70" t="s">
-        <v>1564</v>
+        <v>1581</v>
       </c>
       <c r="H70" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7863,10 +7947,10 @@
         <v>1379</v>
       </c>
       <c r="G71" t="s">
-        <v>1565</v>
+        <v>1582</v>
       </c>
       <c r="H71" t="s">
-        <v>1852</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7886,13 +7970,13 @@
         <v>1296</v>
       </c>
       <c r="F72" t="s">
-        <v>1278</v>
+        <v>1367</v>
       </c>
       <c r="G72" t="s">
-        <v>933</v>
+        <v>1583</v>
       </c>
       <c r="H72" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7915,10 +7999,10 @@
         <v>1380</v>
       </c>
       <c r="G73" t="s">
-        <v>1566</v>
+        <v>1584</v>
       </c>
       <c r="H73" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7938,13 +8022,13 @@
         <v>1284</v>
       </c>
       <c r="F74" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="G74" t="s">
-        <v>1567</v>
+        <v>1585</v>
       </c>
       <c r="H74" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7970,7 +8054,7 @@
         <v>985</v>
       </c>
       <c r="H75" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7990,13 +8074,13 @@
         <v>1285</v>
       </c>
       <c r="F76" t="s">
-        <v>1285</v>
+        <v>1337</v>
       </c>
       <c r="G76" t="s">
-        <v>995</v>
+        <v>1586</v>
       </c>
       <c r="H76" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -8016,13 +8100,13 @@
         <v>1278</v>
       </c>
       <c r="F77" t="s">
-        <v>1278</v>
+        <v>1381</v>
       </c>
       <c r="G77" t="s">
-        <v>996</v>
+        <v>1587</v>
       </c>
       <c r="H77" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -8045,10 +8129,10 @@
         <v>1379</v>
       </c>
       <c r="G78" t="s">
-        <v>1568</v>
+        <v>1588</v>
       </c>
       <c r="H78" t="s">
-        <v>1866</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -8068,13 +8152,13 @@
         <v>1278</v>
       </c>
       <c r="F79" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G79" t="s">
-        <v>1569</v>
+        <v>1589</v>
       </c>
       <c r="H79" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -8094,13 +8178,13 @@
         <v>1277</v>
       </c>
       <c r="F80" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="G80" t="s">
-        <v>1570</v>
+        <v>1590</v>
       </c>
       <c r="H80" t="s">
-        <v>1856</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -8123,10 +8207,10 @@
         <v>1285</v>
       </c>
       <c r="G81" t="s">
-        <v>1550</v>
+        <v>1567</v>
       </c>
       <c r="H81" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -8146,13 +8230,13 @@
         <v>1297</v>
       </c>
       <c r="F82" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="G82" t="s">
-        <v>1571</v>
+        <v>1591</v>
       </c>
       <c r="H82" t="s">
-        <v>1865</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -8178,7 +8262,7 @@
         <v>933</v>
       </c>
       <c r="H83" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -8198,13 +8282,13 @@
         <v>1278</v>
       </c>
       <c r="F84" t="s">
-        <v>1383</v>
+        <v>1340</v>
       </c>
       <c r="G84" t="s">
-        <v>1572</v>
+        <v>1592</v>
       </c>
       <c r="H84" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -8227,10 +8311,10 @@
         <v>1384</v>
       </c>
       <c r="G85" t="s">
-        <v>1573</v>
+        <v>1593</v>
       </c>
       <c r="H85" t="s">
-        <v>1867</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -8253,10 +8337,10 @@
         <v>1278</v>
       </c>
       <c r="G86" t="s">
-        <v>1574</v>
+        <v>1594</v>
       </c>
       <c r="H86" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -8276,13 +8360,13 @@
         <v>1285</v>
       </c>
       <c r="F87" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G87" t="s">
-        <v>1575</v>
+        <v>1595</v>
       </c>
       <c r="H87" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -8305,10 +8389,10 @@
         <v>1351</v>
       </c>
       <c r="G88" t="s">
-        <v>1576</v>
+        <v>1596</v>
       </c>
       <c r="H88" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -8331,10 +8415,10 @@
         <v>1285</v>
       </c>
       <c r="G89" t="s">
-        <v>1550</v>
+        <v>1567</v>
       </c>
       <c r="H89" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8357,10 +8441,10 @@
         <v>1385</v>
       </c>
       <c r="G90" t="s">
-        <v>1577</v>
+        <v>1597</v>
       </c>
       <c r="H90" t="s">
-        <v>1858</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8383,10 +8467,10 @@
         <v>1386</v>
       </c>
       <c r="G91" t="s">
-        <v>1578</v>
+        <v>1598</v>
       </c>
       <c r="H91" t="s">
-        <v>1856</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8409,10 +8493,10 @@
         <v>1387</v>
       </c>
       <c r="G92" t="s">
-        <v>1579</v>
+        <v>1599</v>
       </c>
       <c r="H92" t="s">
-        <v>1868</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8435,10 +8519,10 @@
         <v>1388</v>
       </c>
       <c r="G93" t="s">
-        <v>1580</v>
+        <v>1600</v>
       </c>
       <c r="H93" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8458,13 +8542,13 @@
         <v>1289</v>
       </c>
       <c r="F94" t="s">
-        <v>1389</v>
+        <v>1381</v>
       </c>
       <c r="G94" t="s">
-        <v>1581</v>
+        <v>1601</v>
       </c>
       <c r="H94" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8484,13 +8568,13 @@
         <v>1300</v>
       </c>
       <c r="F95" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="G95" t="s">
-        <v>1582</v>
+        <v>1602</v>
       </c>
       <c r="H95" t="s">
-        <v>1856</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8510,13 +8594,13 @@
         <v>1278</v>
       </c>
       <c r="F96" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G96" t="s">
-        <v>1583</v>
+        <v>1603</v>
       </c>
       <c r="H96" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8535,8 +8619,14 @@
       <c r="E97" t="s">
         <v>1277</v>
       </c>
+      <c r="F97" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G97" t="s">
+        <v>1604</v>
+      </c>
       <c r="H97" t="s">
-        <v>1858</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8559,10 +8649,10 @@
         <v>1285</v>
       </c>
       <c r="G98" t="s">
-        <v>1584</v>
+        <v>1605</v>
       </c>
       <c r="H98" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8582,13 +8672,13 @@
         <v>1279</v>
       </c>
       <c r="F99" t="s">
-        <v>1340</v>
+        <v>1390</v>
       </c>
       <c r="G99" t="s">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="H99" t="s">
-        <v>1852</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8611,10 +8701,10 @@
         <v>1391</v>
       </c>
       <c r="G100" t="s">
-        <v>1586</v>
+        <v>1607</v>
       </c>
       <c r="H100" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8637,10 +8727,10 @@
         <v>1294</v>
       </c>
       <c r="G101" t="s">
-        <v>1587</v>
+        <v>1608</v>
       </c>
       <c r="H101" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8660,13 +8750,13 @@
         <v>1285</v>
       </c>
       <c r="F102" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G102" t="s">
-        <v>1588</v>
+        <v>1609</v>
       </c>
       <c r="H102" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8686,13 +8776,13 @@
         <v>1285</v>
       </c>
       <c r="F103" t="s">
-        <v>1342</v>
+        <v>1392</v>
       </c>
       <c r="G103" t="s">
-        <v>1589</v>
+        <v>1610</v>
       </c>
       <c r="H103" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8715,10 +8805,10 @@
         <v>1384</v>
       </c>
       <c r="G104" t="s">
-        <v>1590</v>
+        <v>1611</v>
       </c>
       <c r="H104" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8744,7 +8834,7 @@
         <v>931</v>
       </c>
       <c r="H105" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8764,13 +8854,13 @@
         <v>1286</v>
       </c>
       <c r="F106" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="G106" t="s">
-        <v>1591</v>
+        <v>1612</v>
       </c>
       <c r="H106" t="s">
-        <v>1856</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8790,13 +8880,13 @@
         <v>1276</v>
       </c>
       <c r="F107" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="G107" t="s">
-        <v>1592</v>
+        <v>1613</v>
       </c>
       <c r="H107" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8816,13 +8906,13 @@
         <v>1296</v>
       </c>
       <c r="F108" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="G108" t="s">
-        <v>1593</v>
+        <v>1614</v>
       </c>
       <c r="H108" t="s">
-        <v>1869</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8842,10 +8932,10 @@
         <v>1298</v>
       </c>
       <c r="G109" t="s">
-        <v>1587</v>
+        <v>1608</v>
       </c>
       <c r="H109" t="s">
-        <v>1856</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8868,10 +8958,10 @@
         <v>1276</v>
       </c>
       <c r="G110" t="s">
-        <v>1594</v>
+        <v>1615</v>
       </c>
       <c r="H110" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8891,13 +8981,13 @@
         <v>1278</v>
       </c>
       <c r="F111" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G111" t="s">
-        <v>1595</v>
+        <v>1616</v>
       </c>
       <c r="H111" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8917,13 +9007,13 @@
         <v>1277</v>
       </c>
       <c r="F112" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="G112" t="s">
-        <v>1596</v>
+        <v>1617</v>
       </c>
       <c r="H112" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8943,13 +9033,13 @@
         <v>1285</v>
       </c>
       <c r="F113" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="G113" t="s">
-        <v>1597</v>
+        <v>1618</v>
       </c>
       <c r="H113" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8975,7 +9065,7 @@
         <v>947</v>
       </c>
       <c r="H114" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8995,13 +9085,13 @@
         <v>1296</v>
       </c>
       <c r="F115" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="G115" t="s">
-        <v>1598</v>
+        <v>1619</v>
       </c>
       <c r="H115" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -9021,13 +9111,13 @@
         <v>1277</v>
       </c>
       <c r="F116" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="G116" t="s">
-        <v>1599</v>
+        <v>1620</v>
       </c>
       <c r="H116" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -9047,13 +9137,13 @@
         <v>1278</v>
       </c>
       <c r="F117" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="G117" t="s">
-        <v>1600</v>
+        <v>1621</v>
       </c>
       <c r="H117" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -9073,13 +9163,13 @@
         <v>1296</v>
       </c>
       <c r="F118" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="G118" t="s">
-        <v>1601</v>
+        <v>1622</v>
       </c>
       <c r="H118" t="s">
-        <v>1866</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -9099,13 +9189,13 @@
         <v>1278</v>
       </c>
       <c r="F119" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="G119" t="s">
-        <v>1602</v>
+        <v>1623</v>
       </c>
       <c r="H119" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -9125,13 +9215,13 @@
         <v>1278</v>
       </c>
       <c r="F120" t="s">
-        <v>1350</v>
+        <v>1343</v>
       </c>
       <c r="G120" t="s">
-        <v>1542</v>
+        <v>1559</v>
       </c>
       <c r="H120" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -9154,10 +9244,10 @@
         <v>1351</v>
       </c>
       <c r="G121" t="s">
-        <v>1603</v>
+        <v>1624</v>
       </c>
       <c r="H121" t="s">
-        <v>1863</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -9180,10 +9270,10 @@
         <v>1351</v>
       </c>
       <c r="G122" t="s">
-        <v>1604</v>
+        <v>1625</v>
       </c>
       <c r="H122" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -9209,7 +9299,7 @@
         <v>933</v>
       </c>
       <c r="H123" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -9229,13 +9319,13 @@
         <v>1278</v>
       </c>
       <c r="F124" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="G124" t="s">
-        <v>1605</v>
+        <v>1626</v>
       </c>
       <c r="H124" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -9255,13 +9345,13 @@
         <v>1278</v>
       </c>
       <c r="F125" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G125" t="s">
-        <v>1606</v>
+        <v>1627</v>
       </c>
       <c r="H125" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -9281,13 +9371,13 @@
         <v>1278</v>
       </c>
       <c r="F126" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G126" t="s">
-        <v>1607</v>
+        <v>1628</v>
       </c>
       <c r="H126" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -9307,13 +9397,13 @@
         <v>1277</v>
       </c>
       <c r="F127" t="s">
-        <v>1345</v>
+        <v>1384</v>
       </c>
       <c r="G127" t="s">
-        <v>1608</v>
+        <v>1629</v>
       </c>
       <c r="H127" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -9333,13 +9423,13 @@
         <v>1276</v>
       </c>
       <c r="F128" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G128" t="s">
-        <v>1609</v>
+        <v>1630</v>
       </c>
       <c r="H128" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -9359,13 +9449,13 @@
         <v>1277</v>
       </c>
       <c r="F129" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="G129" t="s">
-        <v>1610</v>
+        <v>1631</v>
       </c>
       <c r="H129" t="s">
-        <v>1858</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -9385,13 +9475,13 @@
         <v>1277</v>
       </c>
       <c r="F130" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="G130" t="s">
-        <v>1611</v>
+        <v>1632</v>
       </c>
       <c r="H130" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -9411,13 +9501,13 @@
         <v>1298</v>
       </c>
       <c r="F131" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="G131" t="s">
-        <v>1612</v>
+        <v>1633</v>
       </c>
       <c r="H131" t="s">
-        <v>1858</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -9437,13 +9527,13 @@
         <v>1276</v>
       </c>
       <c r="F132" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="G132" t="s">
-        <v>1613</v>
+        <v>1634</v>
       </c>
       <c r="H132" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -9463,13 +9553,13 @@
         <v>1277</v>
       </c>
       <c r="F133" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="G133" t="s">
-        <v>1614</v>
+        <v>1635</v>
       </c>
       <c r="H133" t="s">
-        <v>1858</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9492,10 +9582,10 @@
         <v>1285</v>
       </c>
       <c r="G134" t="s">
-        <v>1550</v>
+        <v>1567</v>
       </c>
       <c r="H134" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9515,13 +9605,13 @@
         <v>1298</v>
       </c>
       <c r="F135" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="G135" t="s">
-        <v>1615</v>
+        <v>1636</v>
       </c>
       <c r="H135" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9547,7 +9637,7 @@
         <v>1046</v>
       </c>
       <c r="H136" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9567,13 +9657,13 @@
         <v>1277</v>
       </c>
       <c r="F137" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="G137" t="s">
-        <v>1616</v>
+        <v>1637</v>
       </c>
       <c r="H137" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9596,10 +9686,10 @@
         <v>1351</v>
       </c>
       <c r="G138" t="s">
-        <v>1617</v>
+        <v>1638</v>
       </c>
       <c r="H138" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9619,13 +9709,13 @@
         <v>1298</v>
       </c>
       <c r="F139" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="G139" t="s">
-        <v>1618</v>
+        <v>1639</v>
       </c>
       <c r="H139" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9645,13 +9735,13 @@
         <v>1282</v>
       </c>
       <c r="F140" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="G140" t="s">
-        <v>1619</v>
+        <v>1640</v>
       </c>
       <c r="H140" t="s">
-        <v>1856</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9677,7 +9767,7 @@
         <v>1050</v>
       </c>
       <c r="H141" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9700,10 +9790,10 @@
         <v>1294</v>
       </c>
       <c r="G142" t="s">
-        <v>1620</v>
+        <v>1641</v>
       </c>
       <c r="H142" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9723,13 +9813,13 @@
         <v>1284</v>
       </c>
       <c r="F143" t="s">
-        <v>1393</v>
+        <v>1413</v>
       </c>
       <c r="G143" t="s">
-        <v>1621</v>
+        <v>1642</v>
       </c>
       <c r="H143" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9749,13 +9839,13 @@
         <v>1277</v>
       </c>
       <c r="F144" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="G144" t="s">
-        <v>1622</v>
+        <v>1643</v>
       </c>
       <c r="H144" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9775,13 +9865,13 @@
         <v>1282</v>
       </c>
       <c r="F145" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="G145" t="s">
-        <v>1623</v>
+        <v>1644</v>
       </c>
       <c r="H145" t="s">
-        <v>1856</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9801,13 +9891,13 @@
         <v>1302</v>
       </c>
       <c r="F146" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="G146" t="s">
-        <v>1624</v>
+        <v>1645</v>
       </c>
       <c r="H146" t="s">
-        <v>1856</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9833,7 +9923,7 @@
         <v>931</v>
       </c>
       <c r="H147" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9856,10 +9946,10 @@
         <v>1278</v>
       </c>
       <c r="G148" t="s">
-        <v>1625</v>
+        <v>1646</v>
       </c>
       <c r="H148" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9882,10 +9972,10 @@
         <v>1278</v>
       </c>
       <c r="G149" t="s">
-        <v>1626</v>
+        <v>1647</v>
       </c>
       <c r="H149" t="s">
-        <v>1870</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9905,13 +9995,13 @@
         <v>1276</v>
       </c>
       <c r="F150" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="G150" t="s">
-        <v>1627</v>
+        <v>1648</v>
       </c>
       <c r="H150" t="s">
-        <v>1858</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9931,13 +10021,13 @@
         <v>1303</v>
       </c>
       <c r="F151" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="G151" t="s">
-        <v>1628</v>
+        <v>1649</v>
       </c>
       <c r="H151" t="s">
-        <v>1871</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9957,13 +10047,13 @@
         <v>1277</v>
       </c>
       <c r="F152" t="s">
-        <v>1417</v>
+        <v>1379</v>
       </c>
       <c r="G152" t="s">
-        <v>1629</v>
+        <v>1650</v>
       </c>
       <c r="H152" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9983,13 +10073,13 @@
         <v>1304</v>
       </c>
       <c r="F153" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="G153" t="s">
-        <v>1630</v>
+        <v>1651</v>
       </c>
       <c r="H153" t="s">
-        <v>1858</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -10009,13 +10099,13 @@
         <v>1278</v>
       </c>
       <c r="F154" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="G154" t="s">
-        <v>1631</v>
+        <v>1652</v>
       </c>
       <c r="H154" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -10035,13 +10125,13 @@
         <v>1278</v>
       </c>
       <c r="F155" t="s">
-        <v>1278</v>
+        <v>1346</v>
       </c>
       <c r="G155" t="s">
-        <v>1632</v>
+        <v>1653</v>
       </c>
       <c r="H155" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -10061,13 +10151,13 @@
         <v>1278</v>
       </c>
       <c r="F156" t="s">
-        <v>1383</v>
+        <v>1421</v>
       </c>
       <c r="G156" t="s">
-        <v>1633</v>
+        <v>1654</v>
       </c>
       <c r="H156" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -10087,13 +10177,13 @@
         <v>1278</v>
       </c>
       <c r="F157" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G157" t="s">
-        <v>1634</v>
+        <v>1655</v>
       </c>
       <c r="H157" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -10113,13 +10203,13 @@
         <v>1285</v>
       </c>
       <c r="F158" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="G158" t="s">
-        <v>1635</v>
+        <v>1656</v>
       </c>
       <c r="H158" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -10139,13 +10229,13 @@
         <v>1285</v>
       </c>
       <c r="F159" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="G159" t="s">
-        <v>1636</v>
+        <v>1657</v>
       </c>
       <c r="H159" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -10165,13 +10255,13 @@
         <v>1285</v>
       </c>
       <c r="F160" t="s">
-        <v>1417</v>
+        <v>1424</v>
       </c>
       <c r="G160" t="s">
-        <v>1637</v>
+        <v>1658</v>
       </c>
       <c r="H160" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -10190,8 +10280,14 @@
       <c r="E161" t="s">
         <v>1278</v>
       </c>
+      <c r="F161" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G161" t="s">
+        <v>1032</v>
+      </c>
       <c r="H161" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -10211,13 +10307,13 @@
         <v>1278</v>
       </c>
       <c r="F162" t="s">
-        <v>1337</v>
+        <v>1425</v>
       </c>
       <c r="G162" t="s">
-        <v>1638</v>
+        <v>1659</v>
       </c>
       <c r="H162" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -10243,7 +10339,7 @@
         <v>976</v>
       </c>
       <c r="H163" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -10263,13 +10359,13 @@
         <v>1279</v>
       </c>
       <c r="F164" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G164" t="s">
-        <v>1639</v>
+        <v>1660</v>
       </c>
       <c r="H164" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -10289,13 +10385,13 @@
         <v>1286</v>
       </c>
       <c r="F165" t="s">
-        <v>1422</v>
+        <v>1426</v>
       </c>
       <c r="G165" t="s">
-        <v>1640</v>
+        <v>1661</v>
       </c>
       <c r="H165" t="s">
-        <v>1856</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -10318,10 +10414,10 @@
         <v>1379</v>
       </c>
       <c r="G166" t="s">
-        <v>1641</v>
+        <v>1662</v>
       </c>
       <c r="H166" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -10341,13 +10437,13 @@
         <v>1279</v>
       </c>
       <c r="F167" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="G167" t="s">
-        <v>1642</v>
+        <v>1663</v>
       </c>
       <c r="H167" t="s">
-        <v>1852</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -10367,13 +10463,13 @@
         <v>1305</v>
       </c>
       <c r="F168" t="s">
-        <v>1423</v>
+        <v>1427</v>
       </c>
       <c r="G168" t="s">
-        <v>1643</v>
+        <v>1664</v>
       </c>
       <c r="H168" t="s">
-        <v>1863</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -10399,7 +10495,7 @@
         <v>1065</v>
       </c>
       <c r="H169" t="s">
-        <v>1866</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -10419,13 +10515,13 @@
         <v>1306</v>
       </c>
       <c r="F170" t="s">
-        <v>1424</v>
+        <v>1428</v>
       </c>
       <c r="G170" t="s">
-        <v>1644</v>
+        <v>1665</v>
       </c>
       <c r="H170" t="s">
-        <v>1863</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -10445,13 +10541,13 @@
         <v>1276</v>
       </c>
       <c r="F171" t="s">
-        <v>1425</v>
+        <v>1429</v>
       </c>
       <c r="G171" t="s">
-        <v>1645</v>
+        <v>1666</v>
       </c>
       <c r="H171" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -10471,13 +10567,13 @@
         <v>1277</v>
       </c>
       <c r="F172" t="s">
-        <v>1384</v>
+        <v>1410</v>
       </c>
       <c r="G172" t="s">
-        <v>1646</v>
+        <v>1667</v>
       </c>
       <c r="H172" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10497,13 +10593,13 @@
         <v>1296</v>
       </c>
       <c r="F173" t="s">
-        <v>1426</v>
+        <v>1430</v>
       </c>
       <c r="G173" t="s">
-        <v>1647</v>
+        <v>1668</v>
       </c>
       <c r="H173" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -10526,10 +10622,10 @@
         <v>1278</v>
       </c>
       <c r="G174" t="s">
-        <v>1648</v>
+        <v>1669</v>
       </c>
       <c r="H174" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10552,10 +10648,10 @@
         <v>1359</v>
       </c>
       <c r="G175" t="s">
-        <v>1649</v>
+        <v>1670</v>
       </c>
       <c r="H175" t="s">
-        <v>1856</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10575,13 +10671,13 @@
         <v>1276</v>
       </c>
       <c r="F176" t="s">
-        <v>1285</v>
+        <v>1350</v>
       </c>
       <c r="G176" t="s">
-        <v>1650</v>
+        <v>1671</v>
       </c>
       <c r="H176" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10601,13 +10697,13 @@
         <v>1284</v>
       </c>
       <c r="F177" t="s">
-        <v>1339</v>
+        <v>1431</v>
       </c>
       <c r="G177" t="s">
-        <v>1651</v>
+        <v>1672</v>
       </c>
       <c r="H177" t="s">
-        <v>1861</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10627,13 +10723,13 @@
         <v>1308</v>
       </c>
       <c r="F178" t="s">
-        <v>1427</v>
+        <v>1432</v>
       </c>
       <c r="G178" t="s">
-        <v>1652</v>
+        <v>1673</v>
       </c>
       <c r="H178" t="s">
-        <v>1872</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10653,13 +10749,13 @@
         <v>1309</v>
       </c>
       <c r="F179" t="s">
-        <v>1428</v>
+        <v>1433</v>
       </c>
       <c r="G179" t="s">
-        <v>1653</v>
+        <v>1674</v>
       </c>
       <c r="H179" t="s">
-        <v>1863</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10682,10 +10778,10 @@
         <v>1359</v>
       </c>
       <c r="G180" t="s">
-        <v>1654</v>
+        <v>1675</v>
       </c>
       <c r="H180" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10705,13 +10801,13 @@
         <v>1277</v>
       </c>
       <c r="F181" t="s">
-        <v>1417</v>
+        <v>1424</v>
       </c>
       <c r="G181" t="s">
-        <v>1655</v>
+        <v>1676</v>
       </c>
       <c r="H181" t="s">
-        <v>1866</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10731,13 +10827,13 @@
         <v>1278</v>
       </c>
       <c r="F182" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G182" t="s">
-        <v>1656</v>
+        <v>1677</v>
       </c>
       <c r="H182" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10757,13 +10853,13 @@
         <v>1278</v>
       </c>
       <c r="F183" t="s">
-        <v>1429</v>
+        <v>1434</v>
       </c>
       <c r="G183" t="s">
-        <v>1657</v>
+        <v>1678</v>
       </c>
       <c r="H183" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10783,13 +10879,13 @@
         <v>1278</v>
       </c>
       <c r="F184" t="s">
-        <v>1278</v>
+        <v>1346</v>
       </c>
       <c r="G184" t="s">
-        <v>1658</v>
+        <v>1679</v>
       </c>
       <c r="H184" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10809,13 +10905,13 @@
         <v>1310</v>
       </c>
       <c r="F185" t="s">
-        <v>1430</v>
+        <v>1435</v>
       </c>
       <c r="G185" t="s">
-        <v>1659</v>
+        <v>1680</v>
       </c>
       <c r="H185" t="s">
-        <v>1866</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10841,7 +10937,7 @@
         <v>1089</v>
       </c>
       <c r="H186" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10861,13 +10957,13 @@
         <v>1278</v>
       </c>
       <c r="F187" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G187" t="s">
-        <v>1660</v>
+        <v>1681</v>
       </c>
       <c r="H187" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10890,10 +10986,10 @@
         <v>1384</v>
       </c>
       <c r="G188" t="s">
-        <v>1661</v>
+        <v>1682</v>
       </c>
       <c r="H188" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10913,13 +11009,13 @@
         <v>1300</v>
       </c>
       <c r="F189" t="s">
-        <v>1431</v>
+        <v>1436</v>
       </c>
       <c r="G189" t="s">
-        <v>1662</v>
+        <v>1683</v>
       </c>
       <c r="H189" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10942,10 +11038,10 @@
         <v>1379</v>
       </c>
       <c r="G190" t="s">
-        <v>1663</v>
+        <v>1684</v>
       </c>
       <c r="H190" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10965,13 +11061,13 @@
         <v>1277</v>
       </c>
       <c r="F191" t="s">
-        <v>1432</v>
+        <v>1437</v>
       </c>
       <c r="G191" t="s">
-        <v>1664</v>
+        <v>1685</v>
       </c>
       <c r="H191" t="s">
-        <v>1852</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10991,13 +11087,13 @@
         <v>1311</v>
       </c>
       <c r="F192" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="G192" t="s">
-        <v>1665</v>
+        <v>1686</v>
       </c>
       <c r="H192" t="s">
-        <v>1852</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -11017,13 +11113,13 @@
         <v>1284</v>
       </c>
       <c r="F193" t="s">
-        <v>1433</v>
+        <v>1438</v>
       </c>
       <c r="G193" t="s">
-        <v>1666</v>
+        <v>1687</v>
       </c>
       <c r="H193" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -11046,10 +11142,10 @@
         <v>1278</v>
       </c>
       <c r="G194" t="s">
-        <v>1667</v>
+        <v>1688</v>
       </c>
       <c r="H194" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -11069,13 +11165,13 @@
         <v>1285</v>
       </c>
       <c r="F195" t="s">
-        <v>1350</v>
+        <v>1343</v>
       </c>
       <c r="G195" t="s">
-        <v>1542</v>
+        <v>1559</v>
       </c>
       <c r="H195" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -11098,10 +11194,10 @@
         <v>1337</v>
       </c>
       <c r="G196" t="s">
-        <v>1668</v>
+        <v>1689</v>
       </c>
       <c r="H196" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -11127,7 +11223,7 @@
         <v>996</v>
       </c>
       <c r="H197" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -11147,7 +11243,7 @@
         <v>1297</v>
       </c>
       <c r="H198" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -11167,13 +11263,13 @@
         <v>1278</v>
       </c>
       <c r="F199" t="s">
-        <v>1434</v>
+        <v>1439</v>
       </c>
       <c r="G199" t="s">
-        <v>1669</v>
+        <v>1690</v>
       </c>
       <c r="H199" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -11196,10 +11292,10 @@
         <v>1359</v>
       </c>
       <c r="G200" t="s">
-        <v>1670</v>
+        <v>1691</v>
       </c>
       <c r="H200" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -11222,10 +11318,10 @@
         <v>1379</v>
       </c>
       <c r="G201" t="s">
-        <v>1671</v>
+        <v>1692</v>
       </c>
       <c r="H201" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -11245,13 +11341,13 @@
         <v>1309</v>
       </c>
       <c r="F202" t="s">
-        <v>1428</v>
+        <v>1433</v>
       </c>
       <c r="G202" t="s">
-        <v>1672</v>
+        <v>1693</v>
       </c>
       <c r="H202" t="s">
-        <v>1863</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -11271,13 +11367,13 @@
         <v>1285</v>
       </c>
       <c r="F203" t="s">
-        <v>1421</v>
+        <v>1440</v>
       </c>
       <c r="G203" t="s">
-        <v>1673</v>
+        <v>1694</v>
       </c>
       <c r="H203" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -11297,13 +11393,13 @@
         <v>1312</v>
       </c>
       <c r="F204" t="s">
-        <v>1435</v>
+        <v>1441</v>
       </c>
       <c r="G204" t="s">
-        <v>1674</v>
+        <v>1695</v>
       </c>
       <c r="H204" t="s">
-        <v>1869</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -11323,13 +11419,13 @@
         <v>1279</v>
       </c>
       <c r="F205" t="s">
-        <v>1436</v>
+        <v>1442</v>
       </c>
       <c r="G205" t="s">
-        <v>1675</v>
+        <v>1696</v>
       </c>
       <c r="H205" t="s">
-        <v>1852</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -11349,13 +11445,13 @@
         <v>1276</v>
       </c>
       <c r="F206" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="G206" t="s">
-        <v>1676</v>
+        <v>1697</v>
       </c>
       <c r="H206" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -11375,13 +11471,13 @@
         <v>1276</v>
       </c>
       <c r="F207" t="s">
-        <v>1437</v>
+        <v>1443</v>
       </c>
       <c r="G207" t="s">
-        <v>1677</v>
+        <v>1698</v>
       </c>
       <c r="H207" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -11401,13 +11497,13 @@
         <v>1278</v>
       </c>
       <c r="F208" t="s">
-        <v>1438</v>
+        <v>1444</v>
       </c>
       <c r="G208" t="s">
-        <v>1678</v>
+        <v>1699</v>
       </c>
       <c r="H208" t="s">
-        <v>1858</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -11427,13 +11523,13 @@
         <v>1277</v>
       </c>
       <c r="F209" t="s">
-        <v>1439</v>
+        <v>1445</v>
       </c>
       <c r="G209" t="s">
-        <v>1679</v>
+        <v>1700</v>
       </c>
       <c r="H209" t="s">
-        <v>1852</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -11456,10 +11552,10 @@
         <v>1278</v>
       </c>
       <c r="G210" t="s">
-        <v>1680</v>
+        <v>1701</v>
       </c>
       <c r="H210" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11479,13 +11575,13 @@
         <v>1311</v>
       </c>
       <c r="F211" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G211" t="s">
-        <v>1681</v>
+        <v>1702</v>
       </c>
       <c r="H211" t="s">
-        <v>1873</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11505,13 +11601,13 @@
         <v>1278</v>
       </c>
       <c r="F212" t="s">
-        <v>1440</v>
+        <v>1446</v>
       </c>
       <c r="G212" t="s">
-        <v>1682</v>
+        <v>1703</v>
       </c>
       <c r="H212" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -11534,10 +11630,10 @@
         <v>1285</v>
       </c>
       <c r="G213" t="s">
-        <v>1524</v>
+        <v>1542</v>
       </c>
       <c r="H213" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11557,13 +11653,13 @@
         <v>1296</v>
       </c>
       <c r="F214" t="s">
-        <v>1441</v>
+        <v>1447</v>
       </c>
       <c r="G214" t="s">
-        <v>1683</v>
+        <v>1704</v>
       </c>
       <c r="H214" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11586,10 +11682,10 @@
         <v>1278</v>
       </c>
       <c r="G215" t="s">
-        <v>1684</v>
+        <v>1705</v>
       </c>
       <c r="H215" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11609,13 +11705,13 @@
         <v>1278</v>
       </c>
       <c r="F216" t="s">
-        <v>1442</v>
+        <v>1448</v>
       </c>
       <c r="G216" t="s">
-        <v>1685</v>
+        <v>1706</v>
       </c>
       <c r="H216" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11635,13 +11731,13 @@
         <v>1311</v>
       </c>
       <c r="F217" t="s">
-        <v>1443</v>
+        <v>1449</v>
       </c>
       <c r="G217" t="s">
-        <v>1686</v>
+        <v>1707</v>
       </c>
       <c r="H217" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11661,13 +11757,13 @@
         <v>1281</v>
       </c>
       <c r="F218" t="s">
-        <v>1444</v>
+        <v>1450</v>
       </c>
       <c r="G218" t="s">
-        <v>1687</v>
+        <v>1708</v>
       </c>
       <c r="H218" t="s">
-        <v>1856</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11690,10 +11786,10 @@
         <v>1337</v>
       </c>
       <c r="G219" t="s">
-        <v>1688</v>
+        <v>1709</v>
       </c>
       <c r="H219" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11716,10 +11812,10 @@
         <v>1351</v>
       </c>
       <c r="G220" t="s">
-        <v>1689</v>
+        <v>1710</v>
       </c>
       <c r="H220" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11742,10 +11838,10 @@
         <v>1351</v>
       </c>
       <c r="G221" t="s">
-        <v>1690</v>
+        <v>1711</v>
       </c>
       <c r="H221" t="s">
-        <v>1856</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11771,7 +11867,7 @@
         <v>947</v>
       </c>
       <c r="H222" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11791,13 +11887,13 @@
         <v>1311</v>
       </c>
       <c r="F223" t="s">
-        <v>1445</v>
+        <v>1451</v>
       </c>
       <c r="G223" t="s">
-        <v>1691</v>
+        <v>1712</v>
       </c>
       <c r="H223" t="s">
-        <v>1874</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11817,13 +11913,13 @@
         <v>1314</v>
       </c>
       <c r="F224" t="s">
-        <v>1446</v>
+        <v>1452</v>
       </c>
       <c r="G224" t="s">
-        <v>1692</v>
+        <v>1713</v>
       </c>
       <c r="H224" t="s">
-        <v>1875</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11846,10 +11942,10 @@
         <v>1337</v>
       </c>
       <c r="G225" t="s">
-        <v>1693</v>
+        <v>1714</v>
       </c>
       <c r="H225" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11869,7 +11965,7 @@
         <v>1276</v>
       </c>
       <c r="H226" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11895,7 +11991,7 @@
         <v>1089</v>
       </c>
       <c r="H227" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11915,13 +12011,13 @@
         <v>1285</v>
       </c>
       <c r="F228" t="s">
-        <v>1447</v>
+        <v>1453</v>
       </c>
       <c r="G228" t="s">
-        <v>1694</v>
+        <v>1715</v>
       </c>
       <c r="H228" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11941,13 +12037,13 @@
         <v>1276</v>
       </c>
       <c r="F229" t="s">
-        <v>1448</v>
+        <v>1454</v>
       </c>
       <c r="G229" t="s">
-        <v>1695</v>
+        <v>1716</v>
       </c>
       <c r="H229" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11967,13 +12063,13 @@
         <v>1294</v>
       </c>
       <c r="F230" t="s">
-        <v>1294</v>
+        <v>1455</v>
       </c>
       <c r="G230" t="s">
-        <v>1696</v>
+        <v>1717</v>
       </c>
       <c r="H230" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11999,7 +12095,7 @@
         <v>947</v>
       </c>
       <c r="H231" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -12022,10 +12118,10 @@
         <v>1294</v>
       </c>
       <c r="G232" t="s">
-        <v>1697</v>
+        <v>1718</v>
       </c>
       <c r="H232" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -12045,13 +12141,13 @@
         <v>1315</v>
       </c>
       <c r="F233" t="s">
-        <v>1449</v>
+        <v>1456</v>
       </c>
       <c r="G233" t="s">
-        <v>1698</v>
+        <v>1719</v>
       </c>
       <c r="H233" t="s">
-        <v>1852</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -12071,13 +12167,13 @@
         <v>1285</v>
       </c>
       <c r="F234" t="s">
-        <v>1447</v>
+        <v>1453</v>
       </c>
       <c r="G234" t="s">
-        <v>1699</v>
+        <v>1720</v>
       </c>
       <c r="H234" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -12097,13 +12193,13 @@
         <v>1300</v>
       </c>
       <c r="F235" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="G235" t="s">
-        <v>1665</v>
+        <v>1686</v>
       </c>
       <c r="H235" t="s">
-        <v>1858</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -12126,10 +12222,10 @@
         <v>1387</v>
       </c>
       <c r="G236" t="s">
-        <v>1700</v>
+        <v>1721</v>
       </c>
       <c r="H236" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -12152,10 +12248,10 @@
         <v>1285</v>
       </c>
       <c r="G237" t="s">
-        <v>1701</v>
+        <v>1722</v>
       </c>
       <c r="H237" t="s">
-        <v>1856</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -12175,13 +12271,13 @@
         <v>1316</v>
       </c>
       <c r="F238" t="s">
-        <v>1450</v>
+        <v>1457</v>
       </c>
       <c r="G238" t="s">
-        <v>1702</v>
+        <v>1723</v>
       </c>
       <c r="H238" t="s">
-        <v>1856</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -12201,13 +12297,13 @@
         <v>1285</v>
       </c>
       <c r="F239" t="s">
-        <v>1451</v>
+        <v>1458</v>
       </c>
       <c r="G239" t="s">
-        <v>1703</v>
+        <v>1724</v>
       </c>
       <c r="H239" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -12227,13 +12323,13 @@
         <v>1317</v>
       </c>
       <c r="F240" t="s">
-        <v>1452</v>
+        <v>1459</v>
       </c>
       <c r="G240" t="s">
-        <v>1704</v>
+        <v>1725</v>
       </c>
       <c r="H240" t="s">
-        <v>1863</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -12256,10 +12352,10 @@
         <v>1337</v>
       </c>
       <c r="G241" t="s">
-        <v>1705</v>
+        <v>1726</v>
       </c>
       <c r="H241" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -12282,10 +12378,10 @@
         <v>1351</v>
       </c>
       <c r="G242" t="s">
-        <v>1576</v>
+        <v>1596</v>
       </c>
       <c r="H242" t="s">
-        <v>1856</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -12305,13 +12401,13 @@
         <v>1276</v>
       </c>
       <c r="F243" t="s">
-        <v>1350</v>
+        <v>1343</v>
       </c>
       <c r="G243" t="s">
-        <v>1522</v>
+        <v>1540</v>
       </c>
       <c r="H243" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -12334,10 +12430,10 @@
         <v>1285</v>
       </c>
       <c r="G244" t="s">
-        <v>1550</v>
+        <v>1567</v>
       </c>
       <c r="H244" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -12360,10 +12456,10 @@
         <v>1380</v>
       </c>
       <c r="G245" t="s">
-        <v>1706</v>
+        <v>1727</v>
       </c>
       <c r="H245" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -12389,7 +12485,7 @@
         <v>931</v>
       </c>
       <c r="H246" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -12409,13 +12505,13 @@
         <v>1310</v>
       </c>
       <c r="F247" t="s">
-        <v>1349</v>
+        <v>1435</v>
       </c>
       <c r="G247" t="s">
-        <v>1707</v>
+        <v>1728</v>
       </c>
       <c r="H247" t="s">
-        <v>1852</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -12435,13 +12531,13 @@
         <v>1276</v>
       </c>
       <c r="F248" t="s">
-        <v>1369</v>
+        <v>1460</v>
       </c>
       <c r="G248" t="s">
-        <v>1708</v>
+        <v>1729</v>
       </c>
       <c r="H248" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -12461,13 +12557,13 @@
         <v>1305</v>
       </c>
       <c r="F249" t="s">
-        <v>1453</v>
+        <v>1461</v>
       </c>
       <c r="G249" t="s">
-        <v>1709</v>
+        <v>1730</v>
       </c>
       <c r="H249" t="s">
-        <v>1857</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -12487,13 +12583,13 @@
         <v>1279</v>
       </c>
       <c r="F250" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="G250" t="s">
-        <v>1710</v>
+        <v>1731</v>
       </c>
       <c r="H250" t="s">
-        <v>1852</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12513,13 +12609,13 @@
         <v>1300</v>
       </c>
       <c r="F251" t="s">
-        <v>1443</v>
+        <v>1449</v>
       </c>
       <c r="G251" t="s">
-        <v>1711</v>
+        <v>1732</v>
       </c>
       <c r="H251" t="s">
-        <v>1858</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12542,10 +12638,10 @@
         <v>1285</v>
       </c>
       <c r="G252" t="s">
-        <v>1712</v>
+        <v>1733</v>
       </c>
       <c r="H252" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12571,7 +12667,7 @@
         <v>947</v>
       </c>
       <c r="H253" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12597,7 +12693,7 @@
         <v>947</v>
       </c>
       <c r="H254" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12617,13 +12713,13 @@
         <v>1276</v>
       </c>
       <c r="F255" t="s">
-        <v>1430</v>
+        <v>1435</v>
       </c>
       <c r="G255" t="s">
-        <v>1713</v>
+        <v>1734</v>
       </c>
       <c r="H255" t="s">
-        <v>1866</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12643,13 +12739,13 @@
         <v>1279</v>
       </c>
       <c r="F256" t="s">
-        <v>1454</v>
+        <v>1462</v>
       </c>
       <c r="G256" t="s">
-        <v>1714</v>
+        <v>1735</v>
       </c>
       <c r="H256" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12669,13 +12765,13 @@
         <v>1286</v>
       </c>
       <c r="F257" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="G257" t="s">
-        <v>1715</v>
+        <v>1736</v>
       </c>
       <c r="H257" t="s">
-        <v>1856</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12695,13 +12791,13 @@
         <v>1279</v>
       </c>
       <c r="F258" t="s">
-        <v>1431</v>
+        <v>1436</v>
       </c>
       <c r="G258" t="s">
-        <v>1716</v>
+        <v>1737</v>
       </c>
       <c r="H258" t="s">
-        <v>1852</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12727,7 +12823,7 @@
         <v>1065</v>
       </c>
       <c r="H259" t="s">
-        <v>1858</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12747,13 +12843,13 @@
         <v>1279</v>
       </c>
       <c r="F260" t="s">
-        <v>1294</v>
+        <v>1455</v>
       </c>
       <c r="G260" t="s">
-        <v>1696</v>
+        <v>1717</v>
       </c>
       <c r="H260" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12776,10 +12872,10 @@
         <v>1356</v>
       </c>
       <c r="G261" t="s">
-        <v>1717</v>
+        <v>1738</v>
       </c>
       <c r="H261" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12799,13 +12895,13 @@
         <v>1285</v>
       </c>
       <c r="F262" t="s">
-        <v>1350</v>
+        <v>1343</v>
       </c>
       <c r="G262" t="s">
-        <v>1542</v>
+        <v>1559</v>
       </c>
       <c r="H262" t="s">
-        <v>1852</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12828,10 +12924,10 @@
         <v>1285</v>
       </c>
       <c r="G263" t="s">
-        <v>1550</v>
+        <v>1567</v>
       </c>
       <c r="H263" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12854,10 +12950,10 @@
         <v>1276</v>
       </c>
       <c r="G264" t="s">
-        <v>1594</v>
+        <v>1615</v>
       </c>
       <c r="H264" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12877,13 +12973,13 @@
         <v>1311</v>
       </c>
       <c r="F265" t="s">
-        <v>1455</v>
+        <v>1463</v>
       </c>
       <c r="G265" t="s">
-        <v>1718</v>
+        <v>1739</v>
       </c>
       <c r="H265" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12903,13 +12999,13 @@
         <v>1294</v>
       </c>
       <c r="F266" t="s">
-        <v>1341</v>
+        <v>1464</v>
       </c>
       <c r="G266" t="s">
-        <v>1719</v>
+        <v>1740</v>
       </c>
       <c r="H266" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12929,13 +13025,13 @@
         <v>1279</v>
       </c>
       <c r="F267" t="s">
-        <v>1456</v>
+        <v>1465</v>
       </c>
       <c r="G267" t="s">
-        <v>1720</v>
+        <v>1741</v>
       </c>
       <c r="H267" t="s">
-        <v>1858</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12955,13 +13051,13 @@
         <v>1286</v>
       </c>
       <c r="F268" t="s">
-        <v>1457</v>
+        <v>1466</v>
       </c>
       <c r="G268" t="s">
-        <v>1721</v>
+        <v>1742</v>
       </c>
       <c r="H268" t="s">
-        <v>1862</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12981,13 +13077,13 @@
         <v>1276</v>
       </c>
       <c r="F269" t="s">
-        <v>1458</v>
+        <v>1467</v>
       </c>
       <c r="G269" t="s">
-        <v>1722</v>
+        <v>1743</v>
       </c>
       <c r="H269" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -13007,13 +13103,13 @@
         <v>1276</v>
       </c>
       <c r="F270" t="s">
-        <v>1294</v>
+        <v>1468</v>
       </c>
       <c r="G270" t="s">
-        <v>1723</v>
+        <v>1744</v>
       </c>
       <c r="H270" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -13033,13 +13129,13 @@
         <v>1304</v>
       </c>
       <c r="F271" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="G271" t="s">
-        <v>1724</v>
+        <v>1745</v>
       </c>
       <c r="H271" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -13059,13 +13155,13 @@
         <v>1286</v>
       </c>
       <c r="F272" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G272" t="s">
-        <v>1725</v>
+        <v>1746</v>
       </c>
       <c r="H272" t="s">
-        <v>1856</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -13085,13 +13181,13 @@
         <v>1279</v>
       </c>
       <c r="F273" t="s">
-        <v>1459</v>
+        <v>1469</v>
       </c>
       <c r="G273" t="s">
-        <v>1726</v>
+        <v>1747</v>
       </c>
       <c r="H273" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -13111,13 +13207,13 @@
         <v>1285</v>
       </c>
       <c r="F274" t="s">
-        <v>1460</v>
+        <v>1470</v>
       </c>
       <c r="G274" t="s">
-        <v>1727</v>
+        <v>1748</v>
       </c>
       <c r="H274" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -13137,13 +13233,13 @@
         <v>1319</v>
       </c>
       <c r="F275" t="s">
-        <v>1461</v>
+        <v>1471</v>
       </c>
       <c r="G275" t="s">
-        <v>1728</v>
+        <v>1749</v>
       </c>
       <c r="H275" t="s">
-        <v>1856</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -13166,10 +13262,10 @@
         <v>1285</v>
       </c>
       <c r="G276" t="s">
-        <v>1524</v>
+        <v>1542</v>
       </c>
       <c r="H276" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -13189,13 +13285,13 @@
         <v>1276</v>
       </c>
       <c r="F277" t="s">
-        <v>1462</v>
+        <v>1472</v>
       </c>
       <c r="G277" t="s">
-        <v>1729</v>
+        <v>1750</v>
       </c>
       <c r="H277" t="s">
-        <v>1866</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -13215,13 +13311,13 @@
         <v>1276</v>
       </c>
       <c r="F278" t="s">
-        <v>1451</v>
+        <v>1435</v>
       </c>
       <c r="G278" t="s">
-        <v>1730</v>
+        <v>1751</v>
       </c>
       <c r="H278" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -13241,13 +13337,13 @@
         <v>1276</v>
       </c>
       <c r="F279" t="s">
-        <v>1278</v>
+        <v>1473</v>
       </c>
       <c r="G279" t="s">
-        <v>1564</v>
+        <v>1752</v>
       </c>
       <c r="H279" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -13270,10 +13366,10 @@
         <v>1337</v>
       </c>
       <c r="G280" t="s">
-        <v>1731</v>
+        <v>1753</v>
       </c>
       <c r="H280" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -13292,8 +13388,11 @@
       <c r="E281" t="s">
         <v>1276</v>
       </c>
+      <c r="G281" t="s">
+        <v>1022</v>
+      </c>
       <c r="H281" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -13313,13 +13412,13 @@
         <v>1276</v>
       </c>
       <c r="F282" t="s">
-        <v>1463</v>
+        <v>1474</v>
       </c>
       <c r="G282" t="s">
-        <v>1732</v>
+        <v>1754</v>
       </c>
       <c r="H282" t="s">
-        <v>1866</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -13342,10 +13441,10 @@
         <v>1285</v>
       </c>
       <c r="G283" t="s">
-        <v>1733</v>
+        <v>1755</v>
       </c>
       <c r="H283" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -13365,13 +13464,13 @@
         <v>1320</v>
       </c>
       <c r="F284" t="s">
-        <v>1464</v>
+        <v>1475</v>
       </c>
       <c r="G284" t="s">
-        <v>1734</v>
+        <v>1756</v>
       </c>
       <c r="H284" t="s">
-        <v>1856</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -13391,13 +13490,13 @@
         <v>1276</v>
       </c>
       <c r="F285" t="s">
-        <v>1430</v>
+        <v>1435</v>
       </c>
       <c r="G285" t="s">
-        <v>1735</v>
+        <v>1757</v>
       </c>
       <c r="H285" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -13417,13 +13516,13 @@
         <v>1276</v>
       </c>
       <c r="F286" t="s">
-        <v>1447</v>
+        <v>1453</v>
       </c>
       <c r="G286" t="s">
-        <v>1736</v>
+        <v>1758</v>
       </c>
       <c r="H286" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -13443,13 +13542,13 @@
         <v>1279</v>
       </c>
       <c r="F287" t="s">
-        <v>1346</v>
+        <v>1476</v>
       </c>
       <c r="G287" t="s">
-        <v>1737</v>
+        <v>1759</v>
       </c>
       <c r="H287" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -13468,8 +13567,14 @@
       <c r="E288" t="s">
         <v>1276</v>
       </c>
+      <c r="F288" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G288" t="s">
+        <v>983</v>
+      </c>
       <c r="H288" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -13489,13 +13594,13 @@
         <v>1285</v>
       </c>
       <c r="F289" t="s">
-        <v>1465</v>
+        <v>1477</v>
       </c>
       <c r="G289" t="s">
-        <v>1738</v>
+        <v>1760</v>
       </c>
       <c r="H289" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -13515,13 +13620,13 @@
         <v>1321</v>
       </c>
       <c r="F290" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G290" t="s">
-        <v>1739</v>
+        <v>1761</v>
       </c>
       <c r="H290" t="s">
-        <v>1862</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13544,10 +13649,10 @@
         <v>1285</v>
       </c>
       <c r="G291" t="s">
-        <v>1740</v>
+        <v>1762</v>
       </c>
       <c r="H291" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13567,13 +13672,13 @@
         <v>1276</v>
       </c>
       <c r="F292" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G292" t="s">
-        <v>1741</v>
+        <v>1763</v>
       </c>
       <c r="H292" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13596,10 +13701,10 @@
         <v>1337</v>
       </c>
       <c r="G293" t="s">
-        <v>1742</v>
+        <v>1764</v>
       </c>
       <c r="H293" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13625,7 +13730,7 @@
         <v>1089</v>
       </c>
       <c r="H294" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13651,7 +13756,7 @@
         <v>947</v>
       </c>
       <c r="H295" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13671,13 +13776,13 @@
         <v>1276</v>
       </c>
       <c r="F296" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G296" t="s">
-        <v>1609</v>
+        <v>1630</v>
       </c>
       <c r="H296" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13700,10 +13805,10 @@
         <v>1276</v>
       </c>
       <c r="G297" t="s">
-        <v>1743</v>
+        <v>1765</v>
       </c>
       <c r="H297" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13723,13 +13828,13 @@
         <v>1294</v>
       </c>
       <c r="F298" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="G298" t="s">
-        <v>1744</v>
+        <v>1766</v>
       </c>
       <c r="H298" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13755,7 +13860,7 @@
         <v>947</v>
       </c>
       <c r="H299" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13774,8 +13879,14 @@
       <c r="E300" t="s">
         <v>1276</v>
       </c>
+      <c r="F300" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G300" t="s">
+        <v>951</v>
+      </c>
       <c r="H300" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13798,10 +13909,10 @@
         <v>1276</v>
       </c>
       <c r="G301" t="s">
-        <v>1509</v>
+        <v>1527</v>
       </c>
       <c r="H301" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13821,13 +13932,13 @@
         <v>1279</v>
       </c>
       <c r="F302" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="G302" t="s">
-        <v>1546</v>
+        <v>1563</v>
       </c>
       <c r="H302" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13847,13 +13958,13 @@
         <v>1276</v>
       </c>
       <c r="F303" t="s">
-        <v>1466</v>
+        <v>1478</v>
       </c>
       <c r="G303" t="s">
-        <v>1745</v>
+        <v>1767</v>
       </c>
       <c r="H303" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13873,13 +13984,13 @@
         <v>1322</v>
       </c>
       <c r="F304" t="s">
-        <v>1278</v>
+        <v>1344</v>
       </c>
       <c r="G304" t="s">
-        <v>1000</v>
+        <v>1768</v>
       </c>
       <c r="H304" t="s">
-        <v>1852</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13899,13 +14010,13 @@
         <v>1279</v>
       </c>
       <c r="F305" t="s">
-        <v>1467</v>
+        <v>1479</v>
       </c>
       <c r="G305" t="s">
-        <v>1746</v>
+        <v>1769</v>
       </c>
       <c r="H305" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13925,13 +14036,13 @@
         <v>1276</v>
       </c>
       <c r="F306" t="s">
-        <v>1350</v>
+        <v>1343</v>
       </c>
       <c r="G306" t="s">
-        <v>1747</v>
+        <v>1770</v>
       </c>
       <c r="H306" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13957,7 +14068,7 @@
         <v>947</v>
       </c>
       <c r="H307" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -13977,13 +14088,13 @@
         <v>1279</v>
       </c>
       <c r="F308" t="s">
-        <v>1340</v>
+        <v>1480</v>
       </c>
       <c r="G308" t="s">
-        <v>1748</v>
+        <v>1771</v>
       </c>
       <c r="H308" t="s">
-        <v>1852</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -14009,7 +14120,7 @@
         <v>1089</v>
       </c>
       <c r="H309" t="s">
-        <v>1855</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -14035,7 +14146,7 @@
         <v>1089</v>
       </c>
       <c r="H310" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -14055,13 +14166,13 @@
         <v>1285</v>
       </c>
       <c r="F311" t="s">
-        <v>1350</v>
+        <v>1343</v>
       </c>
       <c r="G311" t="s">
-        <v>1542</v>
+        <v>1559</v>
       </c>
       <c r="H311" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -14081,13 +14192,13 @@
         <v>1285</v>
       </c>
       <c r="F312" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="G312" t="s">
-        <v>1749</v>
+        <v>1772</v>
       </c>
       <c r="H312" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -14113,7 +14224,7 @@
         <v>947</v>
       </c>
       <c r="H313" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -14139,7 +14250,7 @@
         <v>947</v>
       </c>
       <c r="H314" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -14159,13 +14270,13 @@
         <v>1294</v>
       </c>
       <c r="F315" t="s">
-        <v>1468</v>
+        <v>1481</v>
       </c>
       <c r="G315" t="s">
-        <v>1750</v>
+        <v>1773</v>
       </c>
       <c r="H315" t="s">
-        <v>1852</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -14185,13 +14296,13 @@
         <v>1276</v>
       </c>
       <c r="F316" t="s">
-        <v>1443</v>
+        <v>1449</v>
       </c>
       <c r="G316" t="s">
-        <v>1751</v>
+        <v>1774</v>
       </c>
       <c r="H316" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -14211,13 +14322,13 @@
         <v>1276</v>
       </c>
       <c r="F317" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G317" t="s">
-        <v>1609</v>
+        <v>1630</v>
       </c>
       <c r="H317" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -14237,13 +14348,13 @@
         <v>1279</v>
       </c>
       <c r="F318" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G318" t="s">
-        <v>1525</v>
+        <v>1543</v>
       </c>
       <c r="H318" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -14262,8 +14373,14 @@
       <c r="E319" t="s">
         <v>1285</v>
       </c>
+      <c r="F319" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G319" t="s">
+        <v>1171</v>
+      </c>
       <c r="H319" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -14286,10 +14403,10 @@
         <v>1337</v>
       </c>
       <c r="G320" t="s">
-        <v>1752</v>
+        <v>1775</v>
       </c>
       <c r="H320" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -14309,13 +14426,13 @@
         <v>1315</v>
       </c>
       <c r="F321" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="G321" t="s">
-        <v>1753</v>
+        <v>1776</v>
       </c>
       <c r="H321" t="s">
-        <v>1852</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -14338,10 +14455,10 @@
         <v>1285</v>
       </c>
       <c r="G322" t="s">
-        <v>1550</v>
+        <v>1567</v>
       </c>
       <c r="H322" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -14364,10 +14481,10 @@
         <v>1285</v>
       </c>
       <c r="G323" t="s">
-        <v>1754</v>
+        <v>1777</v>
       </c>
       <c r="H323" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -14387,13 +14504,13 @@
         <v>1279</v>
       </c>
       <c r="F324" t="s">
-        <v>1340</v>
+        <v>1480</v>
       </c>
       <c r="G324" t="s">
-        <v>1755</v>
+        <v>1778</v>
       </c>
       <c r="H324" t="s">
-        <v>1861</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -14419,7 +14536,7 @@
         <v>947</v>
       </c>
       <c r="H325" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -14442,10 +14559,10 @@
         <v>1379</v>
       </c>
       <c r="G326" t="s">
-        <v>1756</v>
+        <v>1779</v>
       </c>
       <c r="H326" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -14468,10 +14585,10 @@
         <v>1285</v>
       </c>
       <c r="G327" t="s">
-        <v>1757</v>
+        <v>1780</v>
       </c>
       <c r="H327" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -14494,10 +14611,10 @@
         <v>1337</v>
       </c>
       <c r="G328" t="s">
-        <v>1758</v>
+        <v>1781</v>
       </c>
       <c r="H328" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -14517,13 +14634,13 @@
         <v>1323</v>
       </c>
       <c r="F329" t="s">
-        <v>1469</v>
+        <v>1482</v>
       </c>
       <c r="G329" t="s">
-        <v>1759</v>
+        <v>1782</v>
       </c>
       <c r="H329" t="s">
-        <v>1876</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14543,13 +14660,13 @@
         <v>1285</v>
       </c>
       <c r="F330" t="s">
-        <v>1470</v>
+        <v>1483</v>
       </c>
       <c r="G330" t="s">
-        <v>1760</v>
+        <v>1783</v>
       </c>
       <c r="H330" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14569,13 +14686,13 @@
         <v>1297</v>
       </c>
       <c r="F331" t="s">
-        <v>1471</v>
+        <v>1484</v>
       </c>
       <c r="G331" t="s">
-        <v>1761</v>
+        <v>1784</v>
       </c>
       <c r="H331" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14598,10 +14715,10 @@
         <v>1285</v>
       </c>
       <c r="G332" t="s">
-        <v>1550</v>
+        <v>1567</v>
       </c>
       <c r="H332" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14621,13 +14738,13 @@
         <v>1276</v>
       </c>
       <c r="F333" t="s">
-        <v>1472</v>
+        <v>1485</v>
       </c>
       <c r="G333" t="s">
-        <v>1762</v>
+        <v>1785</v>
       </c>
       <c r="H333" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14647,13 +14764,13 @@
         <v>1285</v>
       </c>
       <c r="F334" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="G334" t="s">
-        <v>1763</v>
+        <v>1786</v>
       </c>
       <c r="H334" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14676,10 +14793,10 @@
         <v>1355</v>
       </c>
       <c r="G335" t="s">
-        <v>1764</v>
+        <v>1787</v>
       </c>
       <c r="H335" t="s">
-        <v>1866</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14702,10 +14819,10 @@
         <v>1337</v>
       </c>
       <c r="G336" t="s">
-        <v>1765</v>
+        <v>1788</v>
       </c>
       <c r="H336" t="s">
-        <v>1855</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14725,13 +14842,13 @@
         <v>1311</v>
       </c>
       <c r="F337" t="s">
-        <v>1451</v>
+        <v>1458</v>
       </c>
       <c r="G337" t="s">
-        <v>1766</v>
+        <v>1789</v>
       </c>
       <c r="H337" t="s">
-        <v>1861</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14751,13 +14868,13 @@
         <v>1297</v>
       </c>
       <c r="F338" t="s">
-        <v>1468</v>
+        <v>1486</v>
       </c>
       <c r="G338" t="s">
-        <v>1750</v>
+        <v>1790</v>
       </c>
       <c r="H338" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14777,13 +14894,13 @@
         <v>1276</v>
       </c>
       <c r="F339" t="s">
-        <v>1473</v>
+        <v>1378</v>
       </c>
       <c r="G339" t="s">
-        <v>1767</v>
+        <v>1791</v>
       </c>
       <c r="H339" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14806,10 +14923,10 @@
         <v>1294</v>
       </c>
       <c r="G340" t="s">
-        <v>1768</v>
+        <v>1792</v>
       </c>
       <c r="H340" t="s">
-        <v>1852</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14829,13 +14946,13 @@
         <v>1317</v>
       </c>
       <c r="F341" t="s">
-        <v>1474</v>
+        <v>1486</v>
       </c>
       <c r="G341" t="s">
-        <v>1769</v>
+        <v>1793</v>
       </c>
       <c r="H341" t="s">
-        <v>1877</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14855,13 +14972,13 @@
         <v>1276</v>
       </c>
       <c r="F342" t="s">
-        <v>1350</v>
+        <v>1343</v>
       </c>
       <c r="G342" t="s">
-        <v>1522</v>
+        <v>1540</v>
       </c>
       <c r="H342" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14881,13 +14998,13 @@
         <v>1300</v>
       </c>
       <c r="F343" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="G343" t="s">
-        <v>1770</v>
+        <v>1794</v>
       </c>
       <c r="H343" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14907,13 +15024,13 @@
         <v>1324</v>
       </c>
       <c r="F344" t="s">
-        <v>1475</v>
+        <v>1487</v>
       </c>
       <c r="G344" t="s">
-        <v>1771</v>
+        <v>1795</v>
       </c>
       <c r="H344" t="s">
-        <v>1856</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14933,13 +15050,13 @@
         <v>1279</v>
       </c>
       <c r="F345" t="s">
-        <v>1457</v>
+        <v>1488</v>
       </c>
       <c r="G345" t="s">
-        <v>1772</v>
+        <v>1796</v>
       </c>
       <c r="H345" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14959,13 +15076,13 @@
         <v>1300</v>
       </c>
       <c r="F346" t="s">
-        <v>1476</v>
+        <v>1489</v>
       </c>
       <c r="G346" t="s">
-        <v>1773</v>
+        <v>1797</v>
       </c>
       <c r="H346" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -14991,7 +15108,7 @@
         <v>947</v>
       </c>
       <c r="H347" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -15010,8 +15127,14 @@
       <c r="E348" t="s">
         <v>1276</v>
       </c>
+      <c r="F348" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G348" t="s">
+        <v>951</v>
+      </c>
       <c r="H348" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -15037,7 +15160,7 @@
         <v>1089</v>
       </c>
       <c r="H349" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -15057,13 +15180,13 @@
         <v>1276</v>
       </c>
       <c r="F350" t="s">
-        <v>1350</v>
+        <v>1343</v>
       </c>
       <c r="G350" t="s">
-        <v>1522</v>
+        <v>1540</v>
       </c>
       <c r="H350" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -15083,13 +15206,13 @@
         <v>1279</v>
       </c>
       <c r="F351" t="s">
-        <v>1477</v>
+        <v>1490</v>
       </c>
       <c r="G351" t="s">
-        <v>1774</v>
+        <v>1798</v>
       </c>
       <c r="H351" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -15109,13 +15232,13 @@
         <v>1322</v>
       </c>
       <c r="F352" t="s">
-        <v>1478</v>
+        <v>1491</v>
       </c>
       <c r="G352" t="s">
-        <v>1775</v>
+        <v>1799</v>
       </c>
       <c r="H352" t="s">
-        <v>1865</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -15135,13 +15258,13 @@
         <v>1285</v>
       </c>
       <c r="F353" t="s">
-        <v>1350</v>
+        <v>1343</v>
       </c>
       <c r="G353" t="s">
-        <v>1542</v>
+        <v>1559</v>
       </c>
       <c r="H353" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -15161,13 +15284,13 @@
         <v>1276</v>
       </c>
       <c r="F354" t="s">
-        <v>1377</v>
+        <v>1351</v>
       </c>
       <c r="G354" t="s">
-        <v>1776</v>
+        <v>1800</v>
       </c>
       <c r="H354" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -15190,10 +15313,10 @@
         <v>1285</v>
       </c>
       <c r="G355" t="s">
-        <v>1777</v>
+        <v>1801</v>
       </c>
       <c r="H355" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -15219,7 +15342,7 @@
         <v>947</v>
       </c>
       <c r="H356" t="s">
-        <v>1858</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -15239,13 +15362,13 @@
         <v>1325</v>
       </c>
       <c r="F357" t="s">
-        <v>1479</v>
+        <v>1492</v>
       </c>
       <c r="G357" t="s">
-        <v>1778</v>
+        <v>1802</v>
       </c>
       <c r="H357" t="s">
-        <v>1878</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -15265,13 +15388,13 @@
         <v>1276</v>
       </c>
       <c r="F358" t="s">
-        <v>1350</v>
+        <v>1343</v>
       </c>
       <c r="G358" t="s">
-        <v>1522</v>
+        <v>1540</v>
       </c>
       <c r="H358" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -15291,13 +15414,13 @@
         <v>1298</v>
       </c>
       <c r="F359" t="s">
-        <v>1400</v>
+        <v>1493</v>
       </c>
       <c r="G359" t="s">
-        <v>1779</v>
+        <v>1803</v>
       </c>
       <c r="H359" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -15323,7 +15446,7 @@
         <v>1199</v>
       </c>
       <c r="H360" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -15346,10 +15469,10 @@
         <v>1379</v>
       </c>
       <c r="G361" t="s">
-        <v>1568</v>
+        <v>1588</v>
       </c>
       <c r="H361" t="s">
-        <v>1856</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -15369,13 +15492,13 @@
         <v>1298</v>
       </c>
       <c r="F362" t="s">
-        <v>1480</v>
+        <v>1494</v>
       </c>
       <c r="G362" t="s">
-        <v>1780</v>
+        <v>1804</v>
       </c>
       <c r="H362" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -15395,13 +15518,13 @@
         <v>1286</v>
       </c>
       <c r="F363" t="s">
-        <v>1481</v>
+        <v>1495</v>
       </c>
       <c r="G363" t="s">
-        <v>1781</v>
+        <v>1805</v>
       </c>
       <c r="H363" t="s">
-        <v>1856</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -15421,13 +15544,13 @@
         <v>1279</v>
       </c>
       <c r="F364" t="s">
-        <v>1482</v>
+        <v>1496</v>
       </c>
       <c r="G364" t="s">
-        <v>1782</v>
+        <v>1806</v>
       </c>
       <c r="H364" t="s">
-        <v>1858</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -15447,13 +15570,13 @@
         <v>1279</v>
       </c>
       <c r="F365" t="s">
-        <v>1483</v>
+        <v>1497</v>
       </c>
       <c r="G365" t="s">
-        <v>1783</v>
+        <v>1807</v>
       </c>
       <c r="H365" t="s">
-        <v>1879</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -15476,10 +15599,10 @@
         <v>1337</v>
       </c>
       <c r="G366" t="s">
-        <v>1784</v>
+        <v>1808</v>
       </c>
       <c r="H366" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -15499,13 +15622,13 @@
         <v>1279</v>
       </c>
       <c r="F367" t="s">
-        <v>1422</v>
+        <v>1498</v>
       </c>
       <c r="G367" t="s">
-        <v>1785</v>
+        <v>1809</v>
       </c>
       <c r="H367" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15528,10 +15651,10 @@
         <v>1379</v>
       </c>
       <c r="G368" t="s">
-        <v>1786</v>
+        <v>1810</v>
       </c>
       <c r="H368" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15551,13 +15674,13 @@
         <v>1322</v>
       </c>
       <c r="F369" t="s">
-        <v>1422</v>
+        <v>1498</v>
       </c>
       <c r="G369" t="s">
-        <v>1787</v>
+        <v>1811</v>
       </c>
       <c r="H369" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15576,14 +15699,8 @@
       <c r="E370" t="s">
         <v>1285</v>
       </c>
-      <c r="F370" t="s">
-        <v>1285</v>
-      </c>
-      <c r="G370" t="s">
-        <v>1788</v>
-      </c>
       <c r="H370" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15603,13 +15720,13 @@
         <v>1279</v>
       </c>
       <c r="F371" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="G371" t="s">
-        <v>1789</v>
+        <v>1812</v>
       </c>
       <c r="H371" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15629,13 +15746,13 @@
         <v>1285</v>
       </c>
       <c r="F372" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="G372" t="s">
-        <v>1790</v>
+        <v>1813</v>
       </c>
       <c r="H372" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15655,13 +15772,13 @@
         <v>1285</v>
       </c>
       <c r="F373" t="s">
-        <v>1278</v>
+        <v>1346</v>
       </c>
       <c r="G373" t="s">
-        <v>1791</v>
+        <v>1814</v>
       </c>
       <c r="H373" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15681,7 +15798,7 @@
         <v>1285</v>
       </c>
       <c r="H374" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15707,7 +15824,7 @@
         <v>1211</v>
       </c>
       <c r="H375" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15727,13 +15844,13 @@
         <v>1279</v>
       </c>
       <c r="F376" t="s">
-        <v>1484</v>
+        <v>1499</v>
       </c>
       <c r="G376" t="s">
-        <v>1792</v>
+        <v>1815</v>
       </c>
       <c r="H376" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15753,13 +15870,13 @@
         <v>1279</v>
       </c>
       <c r="F377" t="s">
-        <v>1485</v>
+        <v>1500</v>
       </c>
       <c r="G377" t="s">
-        <v>1793</v>
+        <v>1816</v>
       </c>
       <c r="H377" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15782,10 +15899,10 @@
         <v>1278</v>
       </c>
       <c r="G378" t="s">
-        <v>1794</v>
+        <v>1817</v>
       </c>
       <c r="H378" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15805,13 +15922,13 @@
         <v>1326</v>
       </c>
       <c r="F379" t="s">
-        <v>1486</v>
+        <v>1501</v>
       </c>
       <c r="G379" t="s">
-        <v>1795</v>
+        <v>1818</v>
       </c>
       <c r="H379" t="s">
-        <v>1863</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15837,7 +15954,7 @@
         <v>1065</v>
       </c>
       <c r="H380" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15857,13 +15974,13 @@
         <v>1322</v>
       </c>
       <c r="F381" t="s">
-        <v>1340</v>
+        <v>1480</v>
       </c>
       <c r="G381" t="s">
-        <v>1796</v>
+        <v>1819</v>
       </c>
       <c r="H381" t="s">
-        <v>1855</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15883,13 +16000,13 @@
         <v>1327</v>
       </c>
       <c r="F382" t="s">
-        <v>1487</v>
+        <v>1502</v>
       </c>
       <c r="G382" t="s">
-        <v>1797</v>
+        <v>1820</v>
       </c>
       <c r="H382" t="s">
-        <v>1880</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15909,13 +16026,13 @@
         <v>1328</v>
       </c>
       <c r="F383" t="s">
-        <v>1488</v>
+        <v>1503</v>
       </c>
       <c r="G383" t="s">
-        <v>1798</v>
+        <v>1821</v>
       </c>
       <c r="H383" t="s">
-        <v>1871</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15935,13 +16052,13 @@
         <v>1329</v>
       </c>
       <c r="F384" t="s">
-        <v>1489</v>
+        <v>1504</v>
       </c>
       <c r="G384" t="s">
-        <v>1799</v>
+        <v>1822</v>
       </c>
       <c r="H384" t="s">
-        <v>1855</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15961,13 +16078,13 @@
         <v>1279</v>
       </c>
       <c r="F385" t="s">
-        <v>1340</v>
+        <v>1480</v>
       </c>
       <c r="G385" t="s">
-        <v>1755</v>
+        <v>1778</v>
       </c>
       <c r="H385" t="s">
-        <v>1870</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -15990,10 +16107,10 @@
         <v>1374</v>
       </c>
       <c r="G386" t="s">
-        <v>1800</v>
+        <v>1823</v>
       </c>
       <c r="H386" t="s">
-        <v>1856</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -16019,7 +16136,7 @@
         <v>996</v>
       </c>
       <c r="H387" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -16045,7 +16162,7 @@
         <v>1089</v>
       </c>
       <c r="H388" t="s">
-        <v>1856</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -16068,10 +16185,10 @@
         <v>1337</v>
       </c>
       <c r="G389" t="s">
-        <v>1765</v>
+        <v>1788</v>
       </c>
       <c r="H389" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -16091,13 +16208,13 @@
         <v>1295</v>
       </c>
       <c r="F390" t="s">
-        <v>1452</v>
+        <v>1459</v>
       </c>
       <c r="G390" t="s">
-        <v>1801</v>
+        <v>1824</v>
       </c>
       <c r="H390" t="s">
-        <v>1852</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -16117,13 +16234,13 @@
         <v>1285</v>
       </c>
       <c r="F391" t="s">
-        <v>1401</v>
+        <v>1505</v>
       </c>
       <c r="G391" t="s">
-        <v>1802</v>
+        <v>1825</v>
       </c>
       <c r="H391" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -16146,10 +16263,10 @@
         <v>1337</v>
       </c>
       <c r="G392" t="s">
-        <v>1803</v>
+        <v>1826</v>
       </c>
       <c r="H392" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -16172,10 +16289,10 @@
         <v>1359</v>
       </c>
       <c r="G393" t="s">
-        <v>1804</v>
+        <v>1827</v>
       </c>
       <c r="H393" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -16195,13 +16312,13 @@
         <v>1285</v>
       </c>
       <c r="F394" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="G394" t="s">
-        <v>1805</v>
+        <v>1828</v>
       </c>
       <c r="H394" t="s">
-        <v>1865</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -16224,10 +16341,10 @@
         <v>1337</v>
       </c>
       <c r="G395" t="s">
-        <v>1784</v>
+        <v>1808</v>
       </c>
       <c r="H395" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -16247,13 +16364,13 @@
         <v>1285</v>
       </c>
       <c r="F396" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G396" t="s">
-        <v>1806</v>
+        <v>1829</v>
       </c>
       <c r="H396" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -16273,13 +16390,13 @@
         <v>1279</v>
       </c>
       <c r="F397" t="s">
-        <v>1346</v>
+        <v>1476</v>
       </c>
       <c r="G397" t="s">
-        <v>1737</v>
+        <v>1759</v>
       </c>
       <c r="H397" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -16305,7 +16422,7 @@
         <v>1089</v>
       </c>
       <c r="H398" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -16325,13 +16442,13 @@
         <v>1285</v>
       </c>
       <c r="F399" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="G399" t="s">
-        <v>1612</v>
+        <v>1633</v>
       </c>
       <c r="H399" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -16351,13 +16468,13 @@
         <v>1304</v>
       </c>
       <c r="F400" t="s">
-        <v>1490</v>
+        <v>1506</v>
       </c>
       <c r="G400" t="s">
-        <v>1807</v>
+        <v>1830</v>
       </c>
       <c r="H400" t="s">
-        <v>1881</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -16377,13 +16494,13 @@
         <v>1294</v>
       </c>
       <c r="F401" t="s">
-        <v>1447</v>
+        <v>1453</v>
       </c>
       <c r="G401" t="s">
-        <v>1808</v>
+        <v>1831</v>
       </c>
       <c r="H401" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -16403,13 +16520,13 @@
         <v>1294</v>
       </c>
       <c r="F402" t="s">
-        <v>1379</v>
+        <v>1424</v>
       </c>
       <c r="G402" t="s">
-        <v>1809</v>
+        <v>1832</v>
       </c>
       <c r="H402" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -16432,10 +16549,10 @@
         <v>1379</v>
       </c>
       <c r="G403" t="s">
-        <v>1810</v>
+        <v>1833</v>
       </c>
       <c r="H403" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -16458,10 +16575,10 @@
         <v>1278</v>
       </c>
       <c r="G404" t="s">
-        <v>1625</v>
+        <v>1646</v>
       </c>
       <c r="H404" t="s">
-        <v>1852</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -16484,10 +16601,10 @@
         <v>1359</v>
       </c>
       <c r="G405" t="s">
-        <v>1811</v>
+        <v>1834</v>
       </c>
       <c r="H405" t="s">
-        <v>1856</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -16507,13 +16624,13 @@
         <v>1285</v>
       </c>
       <c r="F406" t="s">
-        <v>1460</v>
+        <v>1470</v>
       </c>
       <c r="G406" t="s">
-        <v>1812</v>
+        <v>1835</v>
       </c>
       <c r="H406" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -16533,13 +16650,13 @@
         <v>1294</v>
       </c>
       <c r="F407" t="s">
-        <v>1491</v>
+        <v>1507</v>
       </c>
       <c r="G407" t="s">
-        <v>1813</v>
+        <v>1836</v>
       </c>
       <c r="H407" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -16559,13 +16676,13 @@
         <v>1285</v>
       </c>
       <c r="F408" t="s">
-        <v>1285</v>
+        <v>1425</v>
       </c>
       <c r="G408" t="s">
-        <v>964</v>
+        <v>1837</v>
       </c>
       <c r="H408" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16585,13 +16702,13 @@
         <v>1285</v>
       </c>
       <c r="F409" t="s">
-        <v>1350</v>
+        <v>1343</v>
       </c>
       <c r="G409" t="s">
-        <v>1542</v>
+        <v>1559</v>
       </c>
       <c r="H409" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16617,7 +16734,7 @@
         <v>1234</v>
       </c>
       <c r="H410" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16637,13 +16754,13 @@
         <v>1324</v>
       </c>
       <c r="F411" t="s">
-        <v>1492</v>
+        <v>1508</v>
       </c>
       <c r="G411" t="s">
-        <v>1814</v>
+        <v>1838</v>
       </c>
       <c r="H411" t="s">
-        <v>1868</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16666,10 +16783,10 @@
         <v>1285</v>
       </c>
       <c r="G412" t="s">
-        <v>1524</v>
+        <v>1542</v>
       </c>
       <c r="H412" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16689,13 +16806,13 @@
         <v>1312</v>
       </c>
       <c r="F413" t="s">
-        <v>1449</v>
+        <v>1456</v>
       </c>
       <c r="G413" t="s">
-        <v>1815</v>
+        <v>1839</v>
       </c>
       <c r="H413" t="s">
-        <v>1867</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16715,13 +16832,13 @@
         <v>1285</v>
       </c>
       <c r="F414" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G414" t="s">
-        <v>1816</v>
+        <v>1840</v>
       </c>
       <c r="H414" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16741,13 +16858,13 @@
         <v>1330</v>
       </c>
       <c r="F415" t="s">
-        <v>1493</v>
+        <v>1509</v>
       </c>
       <c r="G415" t="s">
-        <v>1817</v>
+        <v>1841</v>
       </c>
       <c r="H415" t="s">
-        <v>1882</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16767,13 +16884,13 @@
         <v>1285</v>
       </c>
       <c r="F416" t="s">
-        <v>1494</v>
+        <v>1510</v>
       </c>
       <c r="G416" t="s">
-        <v>1818</v>
+        <v>1842</v>
       </c>
       <c r="H416" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16799,7 +16916,7 @@
         <v>987</v>
       </c>
       <c r="H417" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16819,13 +16936,13 @@
         <v>1331</v>
       </c>
       <c r="F418" t="s">
-        <v>1401</v>
+        <v>1511</v>
       </c>
       <c r="G418" t="s">
-        <v>1602</v>
+        <v>1843</v>
       </c>
       <c r="H418" t="s">
-        <v>1869</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16845,13 +16962,13 @@
         <v>1295</v>
       </c>
       <c r="F419" t="s">
-        <v>1340</v>
+        <v>1480</v>
       </c>
       <c r="G419" t="s">
-        <v>1755</v>
+        <v>1778</v>
       </c>
       <c r="H419" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16871,13 +16988,13 @@
         <v>1285</v>
       </c>
       <c r="F420" t="s">
-        <v>1434</v>
+        <v>1439</v>
       </c>
       <c r="G420" t="s">
-        <v>1819</v>
+        <v>1844</v>
       </c>
       <c r="H420" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16897,13 +17014,13 @@
         <v>1294</v>
       </c>
       <c r="F421" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="G421" t="s">
-        <v>1820</v>
+        <v>1845</v>
       </c>
       <c r="H421" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16923,13 +17040,13 @@
         <v>1286</v>
       </c>
       <c r="F422" t="s">
-        <v>1340</v>
+        <v>1480</v>
       </c>
       <c r="G422" t="s">
-        <v>1755</v>
+        <v>1778</v>
       </c>
       <c r="H422" t="s">
-        <v>1856</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16949,13 +17066,13 @@
         <v>1285</v>
       </c>
       <c r="F423" t="s">
-        <v>1443</v>
+        <v>1449</v>
       </c>
       <c r="G423" t="s">
-        <v>1821</v>
+        <v>1846</v>
       </c>
       <c r="H423" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16981,7 +17098,7 @@
         <v>1245</v>
       </c>
       <c r="H424" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -17004,10 +17121,10 @@
         <v>1337</v>
       </c>
       <c r="G425" t="s">
-        <v>1822</v>
+        <v>1847</v>
       </c>
       <c r="H425" t="s">
-        <v>1852</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -17027,13 +17144,13 @@
         <v>1330</v>
       </c>
       <c r="F426" t="s">
-        <v>1495</v>
+        <v>1512</v>
       </c>
       <c r="G426" t="s">
-        <v>1823</v>
+        <v>1848</v>
       </c>
       <c r="H426" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -17052,14 +17169,11 @@
       <c r="E427" t="s">
         <v>1285</v>
       </c>
-      <c r="F427" t="s">
-        <v>1496</v>
-      </c>
       <c r="G427" t="s">
-        <v>1824</v>
+        <v>1211</v>
       </c>
       <c r="H427" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -17079,13 +17193,13 @@
         <v>1279</v>
       </c>
       <c r="F428" t="s">
-        <v>1294</v>
+        <v>1455</v>
       </c>
       <c r="G428" t="s">
-        <v>1696</v>
+        <v>1717</v>
       </c>
       <c r="H428" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -17108,10 +17222,10 @@
         <v>1278</v>
       </c>
       <c r="G429" t="s">
-        <v>1825</v>
+        <v>1849</v>
       </c>
       <c r="H429" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -17134,10 +17248,10 @@
         <v>1278</v>
       </c>
       <c r="G430" t="s">
-        <v>1826</v>
+        <v>1850</v>
       </c>
       <c r="H430" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -17160,10 +17274,10 @@
         <v>1337</v>
       </c>
       <c r="G431" t="s">
-        <v>1827</v>
+        <v>1851</v>
       </c>
       <c r="H431" t="s">
-        <v>1883</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -17186,10 +17300,10 @@
         <v>1337</v>
       </c>
       <c r="G432" t="s">
-        <v>1828</v>
+        <v>1852</v>
       </c>
       <c r="H432" t="s">
-        <v>1858</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -17209,13 +17323,13 @@
         <v>1294</v>
       </c>
       <c r="F433" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="G433" t="s">
-        <v>1612</v>
+        <v>1633</v>
       </c>
       <c r="H433" t="s">
-        <v>1852</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -17235,13 +17349,13 @@
         <v>1294</v>
       </c>
       <c r="F434" t="s">
-        <v>1497</v>
+        <v>1513</v>
       </c>
       <c r="G434" t="s">
-        <v>1829</v>
+        <v>1853</v>
       </c>
       <c r="H434" t="s">
-        <v>1879</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -17264,10 +17378,10 @@
         <v>1337</v>
       </c>
       <c r="G435" t="s">
-        <v>1830</v>
+        <v>1854</v>
       </c>
       <c r="H435" t="s">
-        <v>1870</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -17293,7 +17407,7 @@
         <v>947</v>
       </c>
       <c r="H436" t="s">
-        <v>1852</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -17313,7 +17427,7 @@
         <v>1294</v>
       </c>
       <c r="H437" t="s">
-        <v>1852</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -17339,7 +17453,7 @@
         <v>1089</v>
       </c>
       <c r="H438" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -17362,10 +17476,10 @@
         <v>1278</v>
       </c>
       <c r="G439" t="s">
-        <v>1831</v>
+        <v>1855</v>
       </c>
       <c r="H439" t="s">
-        <v>1852</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -17388,10 +17502,10 @@
         <v>1276</v>
       </c>
       <c r="G440" t="s">
-        <v>1832</v>
+        <v>1856</v>
       </c>
       <c r="H440" t="s">
-        <v>1852</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -17411,13 +17525,13 @@
         <v>1279</v>
       </c>
       <c r="F441" t="s">
-        <v>1498</v>
+        <v>1514</v>
       </c>
       <c r="G441" t="s">
-        <v>1833</v>
+        <v>1857</v>
       </c>
       <c r="H441" t="s">
-        <v>1855</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -17437,13 +17551,13 @@
         <v>1279</v>
       </c>
       <c r="F442" t="s">
-        <v>1499</v>
+        <v>1515</v>
       </c>
       <c r="G442" t="s">
-        <v>1834</v>
+        <v>1858</v>
       </c>
       <c r="H442" t="s">
-        <v>1852</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -17463,13 +17577,13 @@
         <v>1294</v>
       </c>
       <c r="F443" t="s">
-        <v>1430</v>
+        <v>1435</v>
       </c>
       <c r="G443" t="s">
-        <v>1835</v>
+        <v>1859</v>
       </c>
       <c r="H443" t="s">
-        <v>1852</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -17492,10 +17606,10 @@
         <v>1384</v>
       </c>
       <c r="G444" t="s">
-        <v>1836</v>
+        <v>1860</v>
       </c>
       <c r="H444" t="s">
-        <v>1858</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -17515,13 +17629,13 @@
         <v>1332</v>
       </c>
       <c r="F445" t="s">
-        <v>1500</v>
+        <v>1516</v>
       </c>
       <c r="G445" t="s">
-        <v>1837</v>
+        <v>1861</v>
       </c>
       <c r="H445" t="s">
-        <v>1884</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -17544,10 +17658,10 @@
         <v>1379</v>
       </c>
       <c r="G446" t="s">
-        <v>1568</v>
+        <v>1588</v>
       </c>
       <c r="H446" t="s">
-        <v>1858</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -17567,13 +17681,13 @@
         <v>1322</v>
       </c>
       <c r="F447" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G447" t="s">
-        <v>1838</v>
+        <v>1862</v>
       </c>
       <c r="H447" t="s">
-        <v>1866</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -17596,10 +17710,10 @@
         <v>1337</v>
       </c>
       <c r="G448" t="s">
-        <v>1839</v>
+        <v>1863</v>
       </c>
       <c r="H448" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17619,13 +17733,13 @@
         <v>1294</v>
       </c>
       <c r="F449" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G449" t="s">
-        <v>1840</v>
+        <v>1864</v>
       </c>
       <c r="H449" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17645,13 +17759,13 @@
         <v>1285</v>
       </c>
       <c r="F450" t="s">
-        <v>1342</v>
+        <v>1517</v>
       </c>
       <c r="G450" t="s">
-        <v>1589</v>
+        <v>1865</v>
       </c>
       <c r="H450" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17671,13 +17785,13 @@
         <v>1285</v>
       </c>
       <c r="F451" t="s">
-        <v>1361</v>
+        <v>1518</v>
       </c>
       <c r="G451" t="s">
-        <v>1841</v>
+        <v>1866</v>
       </c>
       <c r="H451" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17700,10 +17814,10 @@
         <v>1379</v>
       </c>
       <c r="G452" t="s">
-        <v>1842</v>
+        <v>1867</v>
       </c>
       <c r="H452" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17723,13 +17837,13 @@
         <v>1294</v>
       </c>
       <c r="F453" t="s">
-        <v>1501</v>
+        <v>1519</v>
       </c>
       <c r="G453" t="s">
-        <v>1843</v>
+        <v>1868</v>
       </c>
       <c r="H453" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17749,13 +17863,13 @@
         <v>1333</v>
       </c>
       <c r="F454" t="s">
-        <v>1443</v>
+        <v>1449</v>
       </c>
       <c r="G454" t="s">
-        <v>1844</v>
+        <v>1869</v>
       </c>
       <c r="H454" t="s">
-        <v>1871</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17775,13 +17889,13 @@
         <v>1334</v>
       </c>
       <c r="F455" t="s">
-        <v>1502</v>
+        <v>1520</v>
       </c>
       <c r="G455" t="s">
-        <v>1845</v>
+        <v>1870</v>
       </c>
       <c r="H455" t="s">
-        <v>1876</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17801,13 +17915,13 @@
         <v>1279</v>
       </c>
       <c r="F456" t="s">
-        <v>1503</v>
+        <v>1521</v>
       </c>
       <c r="G456" t="s">
-        <v>1846</v>
+        <v>1871</v>
       </c>
       <c r="H456" t="s">
-        <v>1874</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17827,13 +17941,13 @@
         <v>1279</v>
       </c>
       <c r="F457" t="s">
-        <v>1504</v>
+        <v>1522</v>
       </c>
       <c r="G457" t="s">
-        <v>1847</v>
+        <v>1872</v>
       </c>
       <c r="H457" t="s">
-        <v>1852</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17856,10 +17970,10 @@
         <v>1276</v>
       </c>
       <c r="G458" t="s">
-        <v>1848</v>
+        <v>1873</v>
       </c>
       <c r="H458" t="s">
-        <v>1885</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17879,13 +17993,13 @@
         <v>1294</v>
       </c>
       <c r="F459" t="s">
-        <v>1505</v>
+        <v>1523</v>
       </c>
       <c r="G459" t="s">
-        <v>1849</v>
+        <v>1874</v>
       </c>
       <c r="H459" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17911,7 +18025,7 @@
         <v>947</v>
       </c>
       <c r="H460" t="s">
-        <v>1852</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -17931,13 +18045,13 @@
         <v>1322</v>
       </c>
       <c r="F461" t="s">
-        <v>1506</v>
+        <v>1524</v>
       </c>
       <c r="G461" t="s">
-        <v>1850</v>
+        <v>1875</v>
       </c>
       <c r="H461" t="s">
-        <v>1866</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17957,13 +18071,13 @@
         <v>1304</v>
       </c>
       <c r="F462" t="s">
-        <v>1350</v>
+        <v>1343</v>
       </c>
       <c r="G462" t="s">
-        <v>1542</v>
+        <v>1559</v>
       </c>
       <c r="H462" t="s">
-        <v>1852</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -17983,13 +18097,13 @@
         <v>1336</v>
       </c>
       <c r="F463" t="s">
-        <v>1294</v>
+        <v>1480</v>
       </c>
       <c r="G463" t="s">
-        <v>1696</v>
+        <v>1876</v>
       </c>
       <c r="H463" t="s">
-        <v>1855</v>
+        <v>1881</v>
       </c>
     </row>
   </sheetData>
